--- a/data/income_statement/3digits/total/351_IS_TOTAL.xlsx
+++ b/data/income_statement/3digits/total/351_IS_TOTAL.xlsx
@@ -3,198 +3,25 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <workbookPr codeName="ThisWorkbook"/>
   <bookViews>
-    <workbookView activeTab="0" autoFilterDateGrouping="1" firstSheet="0" minimized="0" showHorizontalScroll="1" showSheetTabs="1" showVerticalScroll="1" tabRatio="934" visibility="visible" windowHeight="2385" windowWidth="4830" xWindow="600" yWindow="2550"/>
+    <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" xWindow="600" yWindow="2550" windowWidth="4830" windowHeight="2385" tabRatio="934" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
   </bookViews>
   <sheets>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="KGEL" sheetId="1" state="visible" r:id="rId1"/>
   </sheets>
   <definedNames>
-    <definedName localSheetId="0" name="\u">#REF!</definedName>
+    <definedName name="\u" localSheetId="0">#REF!</definedName>
     <definedName name="\u">#REF!</definedName>
-    <definedName localSheetId="0" name="_xlnm.Print_Area">KGEL!$A$1:$M$61</definedName>
+    <definedName name="_xlnm.Print_Area" localSheetId="0">'KGEL'!$A$1:$N$61</definedName>
   </definedNames>
   <calcPr calcId="162913" fullCalcOnLoad="1"/>
 </workbook>
 </file>
 
-<file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="56">
-  <si>
-    <t>351-Electric power generation, transmission and distribution</t>
-  </si>
-  <si>
-    <t>INCOME STATEMENT (TRY THOUSANDS)</t>
-  </si>
-  <si>
-    <t>A-GROSS SALES</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    1-Domestic Sales</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    2-Exports</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    3-Other </t>
-  </si>
-  <si>
-    <t>B-DEDUCTIONS FROM SALES    (-)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    1-Sales Returns (-)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    2-Sales Discounts (-)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    3-Other Deductions (-)</t>
-  </si>
-  <si>
-    <t>C-NET SALES</t>
-  </si>
-  <si>
-    <t>D-COST OF GOODS SOLD  (-)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    1-Cost of Finished Goods Sold (-)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    2-Cost of Merchandise Sold (-)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    3-Cost of Services Sold (-)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    4-Other Cost of Sales (-)</t>
-  </si>
-  <si>
-    <t>GROSS PROFIT OR LOSS</t>
-  </si>
-  <si>
-    <t>E-OPERATING EXPENSES  (-)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    1-Research and Development Expenses (-)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    2-Marketing, Selling and Distribution Expenses (-)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    3-General Administration Expenses (-)</t>
-  </si>
-  <si>
-    <t>OPERATING PROFIT OR LOSS</t>
-  </si>
-  <si>
-    <t>F-INCOME FROM OTHER OPERATIONS</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    1-Dividends from Participations</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    2-Dividends from Affiliated Enterprises</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    3-Interest Income</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    4-Commissions</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    5-Provisions that are Cancelled</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    6-Income from Sale of Securities</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    7-Exchange Profits</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    8-Discount Income</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    9-Inflation Adjustment Profits</t>
-  </si>
-  <si>
-    <t xml:space="preserve">   10-Other Income</t>
-  </si>
-  <si>
-    <t>G-EXPENSES FROM OTHER OPERATIONS (-)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    1-Commissions (-)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    2-Provision Expenses (-)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    3-Loss from Sale of Securities (-)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    4-Exchange Losses (-)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    5-Discount Costs (-)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    6-Inflation Adjustment Losses (-)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    7-Other Expenditures (-)</t>
-  </si>
-  <si>
-    <t>H-FINANCING EXPENSES  (-)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    1-Short-term Financing Expenses (-)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    2-Long-term Financing Expenses (-)</t>
-  </si>
-  <si>
-    <t>PROFIT BEFORE EXTRAORDINARY ITEMS</t>
-  </si>
-  <si>
-    <t>I-EXTRAORDINARY INCOME AND PROFITS</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    1-Profits and Income from Previous Period</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    2-Other Extraordinary Profits and Income</t>
-  </si>
-  <si>
-    <t>J-EXTRA ORDINARY EXPENSES AND LOSSES (-)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    1-Losses from non-Operating Parts (-)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    2-Losses from Previous Periods (-)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    3-Other Extraordinary Expenses (-)</t>
-  </si>
-  <si>
-    <t>PROFIT OR LOSS BEFORE TAXES</t>
-  </si>
-  <si>
-    <t>K-PROVISIONS FOR INC.TAX &amp; OTH.LIAB.TO GOV.</t>
-  </si>
-  <si>
-    <t>NET PROFIT OR LOSS FOR THE FINANCIAL YEAR</t>
-  </si>
-  <si>
-    <t>Number of Companies</t>
-  </si>
-</sst>
-</file>
-
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="2">
-    <numFmt formatCode="#,##0.0_);\(#,##0.0\)" numFmtId="164"/>
-    <numFmt formatCode="0_)" numFmtId="165"/>
+    <numFmt numFmtId="164" formatCode="#,##0.0_);\(#,##0.0\)"/>
+    <numFmt numFmtId="165" formatCode="0_)"/>
   </numFmts>
   <fonts count="13">
     <font>
@@ -459,97 +286,165 @@
     </border>
   </borders>
   <cellStyleXfs count="1">
-    <xf borderId="0" fillId="0" fontId="0" numFmtId="0"/>
+    <xf numFmtId="37" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
   <cellXfs count="49">
-    <xf borderId="0" fillId="0" fontId="0" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf applyProtection="1" borderId="0" fillId="0" fontId="1" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0">
-      <protection hidden="0" locked="0"/>
+    <xf numFmtId="37" fontId="0" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="37" fontId="1" fillId="0" borderId="0" applyProtection="1" pivotButton="0" quotePrefix="0" xfId="0">
+      <protection locked="0" hidden="0"/>
     </xf>
-    <xf applyAlignment="1" applyProtection="1" borderId="0" fillId="0" fontId="1" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf numFmtId="37" fontId="1" fillId="0" borderId="0" applyAlignment="1" applyProtection="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="centerContinuous"/>
-      <protection hidden="0" locked="0"/>
+      <protection locked="0" hidden="0"/>
     </xf>
-    <xf applyAlignment="1" borderId="0" fillId="0" fontId="1" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf numFmtId="37" fontId="1" fillId="0" borderId="0" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="left"/>
     </xf>
-    <xf borderId="0" fillId="0" fontId="3" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf borderId="0" fillId="0" fontId="1" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf borderId="0" fillId="0" fontId="0" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf borderId="0" fillId="0" fontId="2" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf borderId="2" fillId="0" fontId="2" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf borderId="1" fillId="0" fontId="2" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf borderId="3" fillId="0" fontId="2" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf applyProtection="1" borderId="0" fillId="0" fontId="1" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0">
-      <protection hidden="0" locked="0"/>
+    <xf numFmtId="37" fontId="3" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="37" fontId="1" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="37" fontId="0" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="37" fontId="2" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="37" fontId="2" fillId="0" borderId="2" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="37" fontId="2" fillId="0" borderId="1" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="37" fontId="2" fillId="0" borderId="3" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="37" fontId="1" fillId="0" borderId="0" applyProtection="1" pivotButton="0" quotePrefix="0" xfId="0">
+      <protection locked="0" hidden="0"/>
     </xf>
-    <xf borderId="0" fillId="0" fontId="2" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf borderId="4" fillId="0" fontId="1" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf borderId="1" fillId="0" fontId="5" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf borderId="0" fillId="0" fontId="0" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf borderId="5" fillId="0" fontId="7" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf applyProtection="1" borderId="5" fillId="0" fontId="8" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0">
-      <protection hidden="0" locked="0"/>
+    <xf numFmtId="37" fontId="2" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="37" fontId="1" fillId="0" borderId="4" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="37" fontId="5" fillId="0" borderId="1" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="37" fontId="0" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="37" fontId="7" fillId="0" borderId="5" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="37" fontId="8" fillId="0" borderId="5" applyProtection="1" pivotButton="0" quotePrefix="0" xfId="0">
+      <protection locked="0" hidden="0"/>
     </xf>
-    <xf applyProtection="1" borderId="5" fillId="0" fontId="8" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0">
-      <protection hidden="0" locked="0"/>
+    <xf numFmtId="37" fontId="8" fillId="0" borderId="5" applyProtection="1" pivotButton="0" quotePrefix="0" xfId="0">
+      <protection locked="0" hidden="0"/>
     </xf>
-    <xf borderId="5" fillId="0" fontId="9" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf borderId="6" fillId="0" fontId="7" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf applyProtection="1" borderId="6" fillId="0" fontId="8" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0">
-      <protection hidden="0" locked="0"/>
+    <xf numFmtId="37" fontId="9" fillId="0" borderId="5" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="37" fontId="7" fillId="0" borderId="6" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="37" fontId="8" fillId="0" borderId="6" applyProtection="1" pivotButton="0" quotePrefix="0" xfId="0">
+      <protection locked="0" hidden="0"/>
     </xf>
-    <xf borderId="6" fillId="0" fontId="8" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf borderId="6" fillId="0" fontId="9" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf borderId="7" fillId="0" fontId="9" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf borderId="7" fillId="0" fontId="9" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf applyProtection="1" borderId="11" fillId="0" fontId="6" numFmtId="164" pivotButton="0" quotePrefix="0" xfId="0">
-      <protection hidden="0" locked="0"/>
+    <xf numFmtId="37" fontId="8" fillId="0" borderId="6" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="37" fontId="9" fillId="0" borderId="6" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="37" fontId="9" fillId="0" borderId="7" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="37" fontId="9" fillId="0" borderId="7" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="164" fontId="6" fillId="0" borderId="11" applyProtection="1" pivotButton="0" quotePrefix="0" xfId="0">
+      <protection locked="0" hidden="0"/>
     </xf>
-    <xf borderId="10" fillId="0" fontId="1" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf borderId="12" fillId="0" fontId="1" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf borderId="13" fillId="0" fontId="1" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf borderId="14" fillId="0" fontId="1" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf applyAlignment="1" applyProtection="1" borderId="0" fillId="0" fontId="3" numFmtId="37" pivotButton="0" quotePrefix="1" xfId="0">
+    <xf numFmtId="37" fontId="1" fillId="0" borderId="10" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="37" fontId="1" fillId="0" borderId="12" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="37" fontId="1" fillId="0" borderId="13" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="37" fontId="1" fillId="0" borderId="14" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="37" fontId="3" fillId="0" borderId="0" applyAlignment="1" applyProtection="1" pivotButton="0" quotePrefix="1" xfId="0">
       <alignment horizontal="left"/>
-      <protection hidden="0" locked="0"/>
+      <protection locked="0" hidden="0"/>
     </xf>
-    <xf applyAlignment="1" borderId="8" fillId="0" fontId="4" numFmtId="1" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf numFmtId="1" fontId="4" fillId="0" borderId="8" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center"/>
     </xf>
-    <xf applyAlignment="1" borderId="9" fillId="0" fontId="4" numFmtId="1" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf numFmtId="1" fontId="4" fillId="0" borderId="9" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center"/>
     </xf>
-    <xf applyAlignment="1" borderId="9" fillId="0" fontId="4" numFmtId="165" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf numFmtId="165" fontId="4" fillId="0" borderId="9" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center"/>
     </xf>
-    <xf borderId="11" fillId="0" fontId="6" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf applyProtection="1" borderId="11" fillId="0" fontId="10" numFmtId="164" pivotButton="0" quotePrefix="0" xfId="0">
-      <protection hidden="0" locked="0"/>
+    <xf numFmtId="37" fontId="6" fillId="0" borderId="11" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="164" fontId="10" fillId="0" borderId="11" applyProtection="1" pivotButton="0" quotePrefix="0" xfId="0">
+      <protection locked="0" hidden="0"/>
     </xf>
-    <xf borderId="11" fillId="0" fontId="6" numFmtId="164" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf borderId="0" fillId="2" fontId="4" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf borderId="0" fillId="0" fontId="11" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf borderId="0" fillId="0" fontId="12" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf borderId="0" fillId="0" fontId="11" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf borderId="0" fillId="0" fontId="12" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf borderId="0" fillId="0" fontId="4" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf applyAlignment="1" borderId="9" fillId="0" fontId="4" numFmtId="165" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf numFmtId="164" fontId="6" fillId="0" borderId="11" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="37" fontId="4" fillId="2" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="37" fontId="11" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="37" fontId="12" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="37" fontId="11" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="37" fontId="12" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="37" fontId="4" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="165" fontId="4" fillId="0" borderId="9" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center"/>
     </xf>
-    <xf applyProtection="1" borderId="11" fillId="0" fontId="6" numFmtId="164" pivotButton="0" quotePrefix="0" xfId="0">
-      <protection hidden="0" locked="0"/>
+    <xf numFmtId="164" fontId="6" fillId="0" borderId="11" applyProtection="1" pivotButton="0" quotePrefix="0" xfId="0">
+      <protection locked="0" hidden="0"/>
     </xf>
-    <xf borderId="11" fillId="0" fontId="6" numFmtId="164" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf applyProtection="1" borderId="11" fillId="0" fontId="10" numFmtId="164" pivotButton="0" quotePrefix="0" xfId="0">
-      <protection hidden="0" locked="0"/>
+    <xf numFmtId="164" fontId="6" fillId="0" borderId="11" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="164" fontId="10" fillId="0" borderId="11" applyProtection="1" pivotButton="0" quotePrefix="0" xfId="0">
+      <protection locked="0" hidden="0"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
-    <cellStyle builtinId="0" name="Normal" xfId="0"/>
+    <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
-  <tableStyles count="0" defaultPivotStyle="PivotStyleLight16" defaultTableStyle="TableStyleMedium9"/>
+  <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleLight16"/>
+  <colors>
+    <indexedColors>
+      <rgbColor rgb="00000000"/>
+      <rgbColor rgb="00FFFFFF"/>
+      <rgbColor rgb="00FF0000"/>
+      <rgbColor rgb="0000FF00"/>
+      <rgbColor rgb="000000FF"/>
+      <rgbColor rgb="00FFFF00"/>
+      <rgbColor rgb="00FF00FF"/>
+      <rgbColor rgb="0000FFFF"/>
+      <rgbColor rgb="00000000"/>
+      <rgbColor rgb="00FFFFFF"/>
+      <rgbColor rgb="00FF0000"/>
+      <rgbColor rgb="0000FF00"/>
+      <rgbColor rgb="000000FF"/>
+      <rgbColor rgb="00FFFF00"/>
+      <rgbColor rgb="00FF00FF"/>
+      <rgbColor rgb="0000FFFF"/>
+      <rgbColor rgb="00800000"/>
+      <rgbColor rgb="00008000"/>
+      <rgbColor rgb="00000080"/>
+      <rgbColor rgb="00808000"/>
+      <rgbColor rgb="00800080"/>
+      <rgbColor rgb="00008080"/>
+      <rgbColor rgb="00C0C0C0"/>
+      <rgbColor rgb="00808080"/>
+      <rgbColor rgb="008080FF"/>
+      <rgbColor rgb="00802060"/>
+      <rgbColor rgb="00FFFFC0"/>
+      <rgbColor rgb="00A0E0E0"/>
+      <rgbColor rgb="00600080"/>
+      <rgbColor rgb="00FF8080"/>
+      <rgbColor rgb="000080C0"/>
+      <rgbColor rgb="00C0C0FF"/>
+      <rgbColor rgb="00000080"/>
+      <rgbColor rgb="00FF00FF"/>
+      <rgbColor rgb="00FFFF00"/>
+      <rgbColor rgb="0000FFFF"/>
+      <rgbColor rgb="00800080"/>
+      <rgbColor rgb="00800000"/>
+      <rgbColor rgb="00008080"/>
+      <rgbColor rgb="000000FF"/>
+      <rgbColor rgb="0000CFFF"/>
+      <rgbColor rgb="0069FFFF"/>
+      <rgbColor rgb="00E0FFE0"/>
+      <rgbColor rgb="00FFFF80"/>
+      <rgbColor rgb="00A6CAF0"/>
+      <rgbColor rgb="00DD9CB3"/>
+      <rgbColor rgb="00B38FEE"/>
+      <rgbColor rgb="00E3E3E3"/>
+      <rgbColor rgb="002A6FF9"/>
+      <rgbColor rgb="003FB8CD"/>
+      <rgbColor rgb="00488436"/>
+      <rgbColor rgb="00958C41"/>
+      <rgbColor rgb="008E5E42"/>
+      <rgbColor rgb="00A0627A"/>
+      <rgbColor rgb="00624FAC"/>
+      <rgbColor rgb="00969696"/>
+      <rgbColor rgb="001D2FBE"/>
+      <rgbColor rgb="00286676"/>
+      <rgbColor rgb="00004500"/>
+      <rgbColor rgb="00453E01"/>
+      <rgbColor rgb="006A2813"/>
+      <rgbColor rgb="0085396A"/>
+      <rgbColor rgb="004A3285"/>
+      <rgbColor rgb="00424242"/>
+    </indexedColors>
+  </colors>
 </styleSheet>
 </file>
 
@@ -844,23 +739,22 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:M64"/>
+  <dimension ref="A1:N64"/>
   <sheetViews>
     <sheetView showGridLines="0" tabSelected="1" workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="8" defaultColWidth="0" defaultRowHeight="13.5" outlineLevelCol="0" zeroHeight="1"/>
+  <sheetFormatPr baseColWidth="8" defaultColWidth="0" defaultRowHeight="13.5" zeroHeight="1"/>
   <cols>
-    <col customWidth="1" max="1" min="1" style="15" width="1.625"/>
-    <col customWidth="1" max="2" min="2" style="15" width="35"/>
-    <col customWidth="1" max="12" min="3" style="15" width="10.25"/>
-    <col customWidth="1" max="13" min="13" style="15" width="10.375"/>
-    <col customWidth="1" max="14" min="14" style="15" width="9"/>
-    <col customWidth="1" hidden="1" max="16384" min="15" style="15"/>
+    <col width="1.625" customWidth="1" style="15" min="1" max="1"/>
+    <col width="35" customWidth="1" style="15" min="2" max="2"/>
+    <col width="13.125" customWidth="1" style="15" min="3" max="14"/>
+    <col width="9" customWidth="1" style="15" min="15" max="15"/>
+    <col hidden="1" style="15" min="16" max="16384"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:13">
+    <row r="1">
       <c r="A1" s="12" t="n"/>
       <c r="B1" s="11" t="n"/>
       <c r="C1" s="2" t="n"/>
@@ -873,11 +767,14 @@
       <c r="J1" s="2" t="n"/>
       <c r="K1" s="2" t="n"/>
       <c r="L1" s="2" t="n"/>
-      <c r="M1" s="11" t="n"/>
-    </row>
-    <row r="2" spans="1:13">
-      <c r="A2" s="31" t="s">
-        <v>0</v>
+      <c r="M1" s="2" t="n"/>
+      <c r="N1" s="11" t="n"/>
+    </row>
+    <row r="2">
+      <c r="A2" s="31" t="inlineStr">
+        <is>
+          <t>351-Electric power generation, transmission and distribution</t>
+        </is>
       </c>
       <c r="C2" s="12" t="n"/>
       <c r="D2" s="12" t="n"/>
@@ -890,10 +787,13 @@
       <c r="K2" s="12" t="n"/>
       <c r="L2" s="12" t="n"/>
       <c r="M2" s="12" t="n"/>
-    </row>
-    <row r="3" spans="1:13">
-      <c r="A3" s="4" t="s">
-        <v>1</v>
+      <c r="N2" s="12" t="n"/>
+    </row>
+    <row r="3">
+      <c r="A3" s="4" t="inlineStr">
+        <is>
+          <t>INCOME STATEMENT (TRY THOUSANDS)</t>
+        </is>
       </c>
       <c r="C3" s="12" t="n"/>
       <c r="D3" s="12" t="n"/>
@@ -906,8 +806,9 @@
       <c r="K3" s="12" t="n"/>
       <c r="L3" s="12" t="n"/>
       <c r="M3" s="12" t="n"/>
-    </row>
-    <row customHeight="1" ht="14.1" r="4" s="44" spans="1:13">
+      <c r="N3" s="12" t="n"/>
+    </row>
+    <row r="4" ht="14.1" customHeight="1" s="44">
       <c r="A4" s="8" t="n"/>
       <c r="B4" s="13" t="n"/>
       <c r="C4" s="33" t="n">
@@ -940,59 +841,69 @@
       <c r="L4" s="32" t="n">
         <v>2018</v>
       </c>
-      <c r="M4" s="33" t="n">
+      <c r="M4" s="32" t="n">
         <v>2019</v>
       </c>
-    </row>
-    <row r="5" spans="1:13">
+      <c r="N4" s="33" t="n">
+        <v>2020</v>
+      </c>
+    </row>
+    <row r="5">
       <c r="A5" s="14" t="n"/>
-      <c r="B5" s="38" t="s">
-        <v>2</v>
+      <c r="B5" s="38" t="inlineStr">
+        <is>
+          <t>A-GROSS SALES</t>
+        </is>
       </c>
       <c r="C5" s="46" t="n">
-        <v>70908062.96973</v>
+        <v>70908062.96972999</v>
       </c>
       <c r="D5" s="47" t="n">
         <v>79104097.54225001</v>
       </c>
       <c r="E5" s="47" t="n">
-        <v>87953554.53153999</v>
+        <v>87953554.53154001</v>
       </c>
       <c r="F5" s="47" t="n">
         <v>111918468.16978</v>
       </c>
       <c r="G5" s="47" t="n">
-        <v>139528062.0144</v>
+        <v>140775552.91642</v>
       </c>
       <c r="H5" s="47" t="n">
-        <v>161787661.92905</v>
+        <v>164164661.29305</v>
       </c>
       <c r="I5" s="47" t="n">
-        <v>166940613.97242</v>
+        <v>180828209.81387</v>
       </c>
       <c r="J5" s="47" t="n">
-        <v>193875548.39293</v>
+        <v>193895248.7433</v>
       </c>
       <c r="K5" s="47" t="n">
-        <v>211105990.1820101</v>
+        <v>211105990.18201</v>
       </c>
       <c r="L5" s="47" t="n">
-        <v>273292428.8726</v>
+        <v>273312150.6656</v>
       </c>
       <c r="M5" s="47" t="n">
-        <v>339016711.92218</v>
-      </c>
-    </row>
-    <row r="6" spans="1:13">
+        <v>339385315.46421</v>
+      </c>
+      <c r="N5" s="47" t="n">
+        <v>398953349.904</v>
+      </c>
+    </row>
+    <row r="6">
       <c r="A6" s="9" t="n"/>
-      <c r="B6" s="3" t="s">
-        <v>3</v>
+      <c r="B6" s="3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    1-Domestic Sales</t>
+        </is>
       </c>
       <c r="C6" s="48" t="n">
         <v>63087850.02831</v>
       </c>
       <c r="D6" s="48" t="n">
-        <v>70488341.88842002</v>
+        <v>70488341.88842</v>
       </c>
       <c r="E6" s="48" t="n">
         <v>77476754.11442</v>
@@ -1001,34 +912,39 @@
         <v>97576165.60227001</v>
       </c>
       <c r="G6" s="48" t="n">
-        <v>123572032.05422</v>
+        <v>124819292.44777</v>
       </c>
       <c r="H6" s="48" t="n">
-        <v>138611746.62386</v>
+        <v>140987710.04295</v>
       </c>
       <c r="I6" s="48" t="n">
-        <v>146588048.40108</v>
+        <v>160308732.45938</v>
       </c>
       <c r="J6" s="48" t="n">
-        <v>186540229.81088</v>
+        <v>186559675.32992</v>
       </c>
       <c r="K6" s="48" t="n">
         <v>204618264.48652</v>
       </c>
       <c r="L6" s="48" t="n">
-        <v>264123822.54085</v>
+        <v>264143325.28137</v>
       </c>
       <c r="M6" s="48" t="n">
-        <v>326802763.6140901</v>
-      </c>
-    </row>
-    <row r="7" spans="1:13">
+        <v>327171067.2292999</v>
+      </c>
+      <c r="N6" s="48" t="n">
+        <v>385624095.858</v>
+      </c>
+    </row>
+    <row r="7">
       <c r="A7" s="9" t="n"/>
-      <c r="B7" s="3" t="s">
-        <v>4</v>
+      <c r="B7" s="3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    2-Exports</t>
+        </is>
       </c>
       <c r="C7" s="48" t="n">
-        <v>365000.0567899999</v>
+        <v>365000.05679</v>
       </c>
       <c r="D7" s="48" t="n">
         <v>1256480.69301</v>
@@ -1040,13 +956,13 @@
         <v>998685.2496399999</v>
       </c>
       <c r="G7" s="48" t="n">
-        <v>960771.6239400001</v>
+        <v>960771.62394</v>
       </c>
       <c r="H7" s="48" t="n">
-        <v>1375128.95554</v>
+        <v>1375170.58834</v>
       </c>
       <c r="I7" s="48" t="n">
-        <v>1014441.62693</v>
+        <v>1160844.26398</v>
       </c>
       <c r="J7" s="48" t="n">
         <v>1352251.84135</v>
@@ -1058,19 +974,24 @@
         <v>1949929.72836</v>
       </c>
       <c r="M7" s="48" t="n">
-        <v>2408359.06497</v>
-      </c>
-    </row>
-    <row r="8" spans="1:13">
+        <v>2406991.80745</v>
+      </c>
+      <c r="N7" s="48" t="n">
+        <v>2395864.567</v>
+      </c>
+    </row>
+    <row r="8">
       <c r="A8" s="9" t="n"/>
-      <c r="B8" s="3" t="s">
-        <v>5</v>
+      <c r="B8" s="3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    3-Other </t>
+        </is>
       </c>
       <c r="C8" s="48" t="n">
-        <v>7455212.884630001</v>
+        <v>7455212.88463</v>
       </c>
       <c r="D8" s="48" t="n">
-        <v>7359274.96082</v>
+        <v>7359274.960820001</v>
       </c>
       <c r="E8" s="48" t="n">
         <v>9357063.54283</v>
@@ -1079,37 +1000,42 @@
         <v>13343617.31787</v>
       </c>
       <c r="G8" s="48" t="n">
-        <v>14995258.33624</v>
+        <v>14995488.84471</v>
       </c>
       <c r="H8" s="48" t="n">
-        <v>21800786.34965</v>
+        <v>21801780.66176</v>
       </c>
       <c r="I8" s="48" t="n">
-        <v>19338123.94441</v>
+        <v>19358633.09051</v>
       </c>
       <c r="J8" s="48" t="n">
-        <v>5983066.7407</v>
+        <v>5983321.572029999</v>
       </c>
       <c r="K8" s="48" t="n">
-        <v>4814467.2948</v>
+        <v>4814467.294799999</v>
       </c>
       <c r="L8" s="48" t="n">
-        <v>7218676.603390001</v>
+        <v>7218895.65587</v>
       </c>
       <c r="M8" s="48" t="n">
-        <v>9805589.24312</v>
-      </c>
-    </row>
-    <row r="9" spans="1:13">
+        <v>9807256.42746</v>
+      </c>
+      <c r="N8" s="48" t="n">
+        <v>10933389.479</v>
+      </c>
+    </row>
+    <row r="9">
       <c r="A9" s="14" t="n"/>
-      <c r="B9" s="38" t="s">
-        <v>6</v>
+      <c r="B9" s="38" t="inlineStr">
+        <is>
+          <t>B-DEDUCTIONS FROM SALES    (-)</t>
+        </is>
       </c>
       <c r="C9" s="46" t="n">
         <v>2179178.9123</v>
       </c>
       <c r="D9" s="47" t="n">
-        <v>888658.6130700001</v>
+        <v>888658.6130700002</v>
       </c>
       <c r="E9" s="47" t="n">
         <v>1201108.27526</v>
@@ -1118,31 +1044,36 @@
         <v>1443573.08991</v>
       </c>
       <c r="G9" s="47" t="n">
-        <v>7095347.299980001</v>
+        <v>7242157.99971</v>
       </c>
       <c r="H9" s="47" t="n">
-        <v>8592409.7818</v>
+        <v>8714009.31364</v>
       </c>
       <c r="I9" s="47" t="n">
-        <v>12318567.13544</v>
+        <v>12783517.27724</v>
       </c>
       <c r="J9" s="47" t="n">
-        <v>25622831.88794</v>
+        <v>25623303.42662</v>
       </c>
       <c r="K9" s="47" t="n">
         <v>19736795.67823</v>
       </c>
       <c r="L9" s="47" t="n">
-        <v>26416223.77515</v>
+        <v>26416226.62515</v>
       </c>
       <c r="M9" s="47" t="n">
-        <v>34719413.10085001</v>
-      </c>
-    </row>
-    <row r="10" spans="1:13">
+        <v>34719646.90809</v>
+      </c>
+      <c r="N9" s="47" t="n">
+        <v>38699361.587</v>
+      </c>
+    </row>
+    <row r="10">
       <c r="A10" s="9" t="n"/>
-      <c r="B10" s="3" t="s">
-        <v>7</v>
+      <c r="B10" s="3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    1-Sales Returns (-)</t>
+        </is>
       </c>
       <c r="C10" s="48" t="n">
         <v>2096624.949</v>
@@ -1154,34 +1085,39 @@
         <v>673136.5234399999</v>
       </c>
       <c r="F10" s="48" t="n">
-        <v>718115.4739199999</v>
+        <v>718115.4739199998</v>
       </c>
       <c r="G10" s="48" t="n">
-        <v>1440874.56038</v>
+        <v>1587685.26011</v>
       </c>
       <c r="H10" s="48" t="n">
-        <v>1401483.60647</v>
+        <v>1521499.21124</v>
       </c>
       <c r="I10" s="48" t="n">
-        <v>1453977.5712</v>
+        <v>1907958.72475</v>
       </c>
       <c r="J10" s="48" t="n">
-        <v>9736586.37679</v>
+        <v>9736588.087789999</v>
       </c>
       <c r="K10" s="48" t="n">
         <v>2661006.36845</v>
       </c>
       <c r="L10" s="48" t="n">
-        <v>2857383.93249</v>
+        <v>2857386.782489999</v>
       </c>
       <c r="M10" s="48" t="n">
-        <v>3189337.0441</v>
-      </c>
-    </row>
-    <row r="11" spans="1:13">
+        <v>3189563.43386</v>
+      </c>
+      <c r="N10" s="48" t="n">
+        <v>4551431.878</v>
+      </c>
+    </row>
+    <row r="11">
       <c r="A11" s="9" t="n"/>
-      <c r="B11" s="3" t="s">
-        <v>8</v>
+      <c r="B11" s="3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    2-Sales Discounts (-)</t>
+        </is>
       </c>
       <c r="C11" s="48" t="n">
         <v>37070.18891</v>
@@ -1202,10 +1138,10 @@
         <v>17585.12335</v>
       </c>
       <c r="I11" s="48" t="n">
-        <v>26065.06395</v>
+        <v>26143.20267</v>
       </c>
       <c r="J11" s="48" t="n">
-        <v>97636.9737</v>
+        <v>97636.97369999999</v>
       </c>
       <c r="K11" s="48" t="n">
         <v>173982.04624</v>
@@ -1216,11 +1152,16 @@
       <c r="M11" s="48" t="n">
         <v>255649.94487</v>
       </c>
-    </row>
-    <row r="12" spans="1:13">
+      <c r="N11" s="48" t="n">
+        <v>167724.355</v>
+      </c>
+    </row>
+    <row r="12">
       <c r="A12" s="9" t="n"/>
-      <c r="B12" s="3" t="s">
-        <v>9</v>
+      <c r="B12" s="3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    3-Other Deductions (-)</t>
+        </is>
       </c>
       <c r="C12" s="48" t="n">
         <v>45483.77439</v>
@@ -1232,19 +1173,19 @@
         <v>460545.45503</v>
       </c>
       <c r="F12" s="48" t="n">
-        <v>694958.16132</v>
+        <v>694958.1613200001</v>
       </c>
       <c r="G12" s="48" t="n">
-        <v>5643654.557150002</v>
+        <v>5643654.55715</v>
       </c>
       <c r="H12" s="48" t="n">
-        <v>7173341.05198</v>
+        <v>7174924.97905</v>
       </c>
       <c r="I12" s="48" t="n">
-        <v>10838524.50029</v>
+        <v>10849415.34982</v>
       </c>
       <c r="J12" s="48" t="n">
-        <v>15788608.53745</v>
+        <v>15789078.36513</v>
       </c>
       <c r="K12" s="48" t="n">
         <v>16901807.26354</v>
@@ -1253,16 +1194,21 @@
         <v>23307150.74816</v>
       </c>
       <c r="M12" s="48" t="n">
-        <v>31274426.11188</v>
-      </c>
-    </row>
-    <row r="13" spans="1:13">
+        <v>31274433.52936</v>
+      </c>
+      <c r="N12" s="48" t="n">
+        <v>33980205.354</v>
+      </c>
+    </row>
+    <row r="13">
       <c r="A13" s="14" t="n"/>
-      <c r="B13" s="38" t="s">
-        <v>10</v>
+      <c r="B13" s="38" t="inlineStr">
+        <is>
+          <t>C-NET SALES</t>
+        </is>
       </c>
       <c r="C13" s="46" t="n">
-        <v>68728884.05743001</v>
+        <v>68728884.05743</v>
       </c>
       <c r="D13" s="47" t="n">
         <v>78215438.92918</v>
@@ -1274,37 +1220,42 @@
         <v>110474895.07987</v>
       </c>
       <c r="G13" s="47" t="n">
-        <v>132432714.71442</v>
+        <v>133533394.91671</v>
       </c>
       <c r="H13" s="47" t="n">
-        <v>153195252.14725</v>
+        <v>155450651.97941</v>
       </c>
       <c r="I13" s="47" t="n">
-        <v>154622046.83698</v>
+        <v>168044692.53663</v>
       </c>
       <c r="J13" s="47" t="n">
-        <v>168252716.50499</v>
+        <v>168271945.31668</v>
       </c>
       <c r="K13" s="47" t="n">
         <v>191369194.50378</v>
       </c>
       <c r="L13" s="47" t="n">
-        <v>246876205.09745</v>
+        <v>246895924.04045</v>
       </c>
       <c r="M13" s="47" t="n">
-        <v>304297298.82133</v>
-      </c>
-    </row>
-    <row r="14" spans="1:13">
+        <v>304665668.55612</v>
+      </c>
+      <c r="N13" s="47" t="n">
+        <v>360253988.317</v>
+      </c>
+    </row>
+    <row r="14">
       <c r="A14" s="14" t="n"/>
-      <c r="B14" s="38" t="s">
-        <v>11</v>
+      <c r="B14" s="38" t="inlineStr">
+        <is>
+          <t>D-COST OF GOODS SOLD  (-)</t>
+        </is>
       </c>
       <c r="C14" s="46" t="n">
         <v>59466861.06362</v>
       </c>
       <c r="D14" s="47" t="n">
-        <v>66338964.25714001</v>
+        <v>66338964.25714</v>
       </c>
       <c r="E14" s="47" t="n">
         <v>77738788.66139999</v>
@@ -1313,31 +1264,36 @@
         <v>99799958.04505001</v>
       </c>
       <c r="G14" s="47" t="n">
-        <v>121191503.69656</v>
+        <v>122275566.15292</v>
       </c>
       <c r="H14" s="47" t="n">
-        <v>144085408.98482</v>
+        <v>146307585.62343</v>
       </c>
       <c r="I14" s="47" t="n">
-        <v>139569155.16135</v>
+        <v>150787204.80046</v>
       </c>
       <c r="J14" s="47" t="n">
-        <v>143579962.90477</v>
+        <v>143595026.19087</v>
       </c>
       <c r="K14" s="47" t="n">
         <v>168452649.52501</v>
       </c>
       <c r="L14" s="47" t="n">
-        <v>216132203.60117</v>
+        <v>216149021.58177</v>
       </c>
       <c r="M14" s="47" t="n">
-        <v>246453254.47767</v>
-      </c>
-    </row>
-    <row r="15" spans="1:13">
+        <v>246687105.48047</v>
+      </c>
+      <c r="N14" s="47" t="n">
+        <v>291012146.592</v>
+      </c>
+    </row>
+    <row r="15">
       <c r="A15" s="9" t="n"/>
-      <c r="B15" s="3" t="s">
-        <v>12</v>
+      <c r="B15" s="3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    1-Cost of Finished Goods Sold (-)</t>
+        </is>
       </c>
       <c r="C15" s="48" t="n">
         <v>12978716.76538</v>
@@ -1352,31 +1308,36 @@
         <v>22513528.22606</v>
       </c>
       <c r="G15" s="48" t="n">
-        <v>23086719.12114</v>
+        <v>23191756.28668</v>
       </c>
       <c r="H15" s="48" t="n">
-        <v>34812387.80348</v>
+        <v>35246358.41965999</v>
       </c>
       <c r="I15" s="48" t="n">
-        <v>19723005.76703</v>
+        <v>27175954.53847</v>
       </c>
       <c r="J15" s="48" t="n">
-        <v>28892025.55028</v>
+        <v>28907026.32863</v>
       </c>
       <c r="K15" s="48" t="n">
         <v>37713481.13969</v>
       </c>
       <c r="L15" s="48" t="n">
-        <v>50345942.93278</v>
+        <v>50356513.22909001</v>
       </c>
       <c r="M15" s="48" t="n">
-        <v>56418052.25760001</v>
-      </c>
-    </row>
-    <row r="16" spans="1:13">
+        <v>56460320.03814</v>
+      </c>
+      <c r="N15" s="48" t="n">
+        <v>65436643.944</v>
+      </c>
+    </row>
+    <row r="16">
       <c r="A16" s="9" t="n"/>
-      <c r="B16" s="3" t="s">
-        <v>13</v>
+      <c r="B16" s="3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    2-Cost of Merchandise Sold (-)</t>
+        </is>
       </c>
       <c r="C16" s="48" t="n">
         <v>33874414.42337</v>
@@ -1391,70 +1352,80 @@
         <v>52579549.53173</v>
       </c>
       <c r="G16" s="48" t="n">
-        <v>49133730.00164</v>
+        <v>50112755.29246</v>
       </c>
       <c r="H16" s="48" t="n">
-        <v>52492643.25817</v>
+        <v>54277451.19326</v>
       </c>
       <c r="I16" s="48" t="n">
-        <v>85434681.59457998</v>
+        <v>88829297.01764001</v>
       </c>
       <c r="J16" s="48" t="n">
-        <v>94214496.12641999</v>
+        <v>94214543.16431999</v>
       </c>
       <c r="K16" s="48" t="n">
         <v>107592364.05052</v>
       </c>
       <c r="L16" s="48" t="n">
-        <v>125357611.50572</v>
+        <v>125360724.76029</v>
       </c>
       <c r="M16" s="48" t="n">
-        <v>158350283.85807</v>
-      </c>
-    </row>
-    <row r="17" spans="1:13">
+        <v>158526987.45103</v>
+      </c>
+      <c r="N16" s="48" t="n">
+        <v>185120980.377</v>
+      </c>
+    </row>
+    <row r="17">
       <c r="A17" s="9" t="n"/>
-      <c r="B17" s="3" t="s">
-        <v>14</v>
+      <c r="B17" s="3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    3-Cost of Services Sold (-)</t>
+        </is>
       </c>
       <c r="C17" s="48" t="n">
         <v>5270040.93174</v>
       </c>
       <c r="D17" s="48" t="n">
-        <v>5746656.446640001</v>
+        <v>5746656.44664</v>
       </c>
       <c r="E17" s="48" t="n">
-        <v>8429651.3573</v>
+        <v>8429651.357299998</v>
       </c>
       <c r="F17" s="48" t="n">
         <v>12004613.91998</v>
       </c>
       <c r="G17" s="48" t="n">
-        <v>35468885.12054999</v>
+        <v>35468885.12055001</v>
       </c>
       <c r="H17" s="48" t="n">
-        <v>36756883.68766</v>
+        <v>36760271.775</v>
       </c>
       <c r="I17" s="48" t="n">
-        <v>17268725.01483</v>
+        <v>17629685.45594</v>
       </c>
       <c r="J17" s="48" t="n">
-        <v>19747894.88571</v>
+        <v>19747900.18606</v>
       </c>
       <c r="K17" s="48" t="n">
         <v>22727873.54438</v>
       </c>
       <c r="L17" s="48" t="n">
-        <v>36552150.32288</v>
+        <v>36555281.6526</v>
       </c>
       <c r="M17" s="48" t="n">
-        <v>25688862.45025</v>
-      </c>
-    </row>
-    <row r="18" spans="1:13">
+        <v>25703281.20386</v>
+      </c>
+      <c r="N17" s="48" t="n">
+        <v>34765344.522</v>
+      </c>
+    </row>
+    <row r="18">
       <c r="A18" s="9" t="n"/>
-      <c r="B18" s="3" t="s">
-        <v>15</v>
+      <c r="B18" s="3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    4-Other Cost of Sales (-)</t>
+        </is>
       </c>
       <c r="C18" s="48" t="n">
         <v>7343688.94313</v>
@@ -1472,28 +1443,33 @@
         <v>13502169.45323</v>
       </c>
       <c r="H18" s="48" t="n">
-        <v>20023494.23551</v>
+        <v>20023504.23551</v>
       </c>
       <c r="I18" s="48" t="n">
-        <v>17142742.78491</v>
+        <v>17152267.78841</v>
       </c>
       <c r="J18" s="48" t="n">
-        <v>725546.3423599999</v>
+        <v>725556.51186</v>
       </c>
       <c r="K18" s="48" t="n">
-        <v>418930.7904200001</v>
+        <v>418930.79042</v>
       </c>
       <c r="L18" s="48" t="n">
-        <v>3876498.83979</v>
+        <v>3876501.93979</v>
       </c>
       <c r="M18" s="48" t="n">
-        <v>5996055.91175</v>
-      </c>
-    </row>
-    <row r="19" spans="1:13">
+        <v>5996516.787439999</v>
+      </c>
+      <c r="N18" s="48" t="n">
+        <v>5689177.749</v>
+      </c>
+    </row>
+    <row r="19">
       <c r="A19" s="14" t="n"/>
-      <c r="B19" s="38" t="s">
-        <v>16</v>
+      <c r="B19" s="38" t="inlineStr">
+        <is>
+          <t>GROSS PROFIT OR LOSS</t>
+        </is>
       </c>
       <c r="C19" s="46" t="n">
         <v>9262022.99381</v>
@@ -1502,37 +1478,42 @@
         <v>11876474.67204</v>
       </c>
       <c r="E19" s="47" t="n">
-        <v>9013657.594880002</v>
+        <v>9013657.59488</v>
       </c>
       <c r="F19" s="47" t="n">
         <v>10674937.03482</v>
       </c>
       <c r="G19" s="47" t="n">
-        <v>11241211.01786</v>
+        <v>11257828.76379</v>
       </c>
       <c r="H19" s="47" t="n">
-        <v>9109843.16243</v>
+        <v>9143066.35598</v>
       </c>
       <c r="I19" s="47" t="n">
-        <v>15052891.67563</v>
+        <v>17257487.73617</v>
       </c>
       <c r="J19" s="47" t="n">
-        <v>24672753.60022</v>
+        <v>24676919.12581</v>
       </c>
       <c r="K19" s="47" t="n">
         <v>22916544.97877</v>
       </c>
       <c r="L19" s="47" t="n">
-        <v>30744001.49628</v>
+        <v>30746902.45868</v>
       </c>
       <c r="M19" s="47" t="n">
-        <v>57844044.34366</v>
-      </c>
-    </row>
-    <row r="20" spans="1:13">
+        <v>57978563.07565</v>
+      </c>
+      <c r="N19" s="47" t="n">
+        <v>69241841.72499999</v>
+      </c>
+    </row>
+    <row r="20">
       <c r="A20" s="14" t="n"/>
-      <c r="B20" s="38" t="s">
-        <v>17</v>
+      <c r="B20" s="38" t="inlineStr">
+        <is>
+          <t>E-OPERATING EXPENSES  (-)</t>
+        </is>
       </c>
       <c r="C20" s="46" t="n">
         <v>3805619.62219</v>
@@ -1544,34 +1525,39 @@
         <v>5165492.82709</v>
       </c>
       <c r="F20" s="47" t="n">
-        <v>5690697.29658</v>
+        <v>5691147.37284</v>
       </c>
       <c r="G20" s="47" t="n">
-        <v>5123298.924729999</v>
+        <v>5159107.225520001</v>
       </c>
       <c r="H20" s="47" t="n">
-        <v>5913559.850819999</v>
+        <v>5974969.568770001</v>
       </c>
       <c r="I20" s="47" t="n">
-        <v>6729640.950719999</v>
+        <v>7250455.83444</v>
       </c>
       <c r="J20" s="47" t="n">
-        <v>8147656.855209999</v>
+        <v>8157720.267030001</v>
       </c>
       <c r="K20" s="47" t="n">
         <v>9274942.00722</v>
       </c>
       <c r="L20" s="47" t="n">
-        <v>10313790.71911</v>
+        <v>10317725.38737</v>
       </c>
       <c r="M20" s="47" t="n">
-        <v>12753205.532</v>
-      </c>
-    </row>
-    <row r="21" spans="1:13">
+        <v>12795262.50332</v>
+      </c>
+      <c r="N20" s="47" t="n">
+        <v>14201380.594</v>
+      </c>
+    </row>
+    <row r="21">
       <c r="A21" s="9" t="n"/>
-      <c r="B21" s="3" t="s">
-        <v>18</v>
+      <c r="B21" s="3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    1-Research and Development Expenses (-)</t>
+        </is>
       </c>
       <c r="C21" s="48" t="n">
         <v>11332.95522</v>
@@ -1580,19 +1566,19 @@
         <v>8942.781969999998</v>
       </c>
       <c r="E21" s="48" t="n">
-        <v>6583.760270000001</v>
+        <v>6583.76027</v>
       </c>
       <c r="F21" s="48" t="n">
         <v>22050.73472</v>
       </c>
       <c r="G21" s="48" t="n">
-        <v>14535.39757</v>
+        <v>15017.12415</v>
       </c>
       <c r="H21" s="48" t="n">
         <v>26187.33554</v>
       </c>
       <c r="I21" s="48" t="n">
-        <v>42065.91684</v>
+        <v>44719.23225</v>
       </c>
       <c r="J21" s="48" t="n">
         <v>45407.58491</v>
@@ -1604,13 +1590,18 @@
         <v>55539.71689</v>
       </c>
       <c r="M21" s="48" t="n">
-        <v>59890.33998999999</v>
-      </c>
-    </row>
-    <row r="22" spans="1:13">
+        <v>59890.33999000001</v>
+      </c>
+      <c r="N21" s="48" t="n">
+        <v>29858.139</v>
+      </c>
+    </row>
+    <row r="22">
       <c r="A22" s="9" t="n"/>
-      <c r="B22" s="41" t="s">
-        <v>19</v>
+      <c r="B22" s="41" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    2-Marketing, Selling and Distribution Expenses (-)</t>
+        </is>
       </c>
       <c r="C22" s="48" t="n">
         <v>2156423.16802</v>
@@ -1625,31 +1616,36 @@
         <v>2971427.10374</v>
       </c>
       <c r="G22" s="48" t="n">
-        <v>2045084.77359</v>
+        <v>2070350.74575</v>
       </c>
       <c r="H22" s="48" t="n">
-        <v>2593090.41202</v>
+        <v>2638283.48126</v>
       </c>
       <c r="I22" s="48" t="n">
-        <v>2825154.35822</v>
+        <v>2855397.25248</v>
       </c>
       <c r="J22" s="48" t="n">
-        <v>3245195.25408</v>
+        <v>3245381.48414</v>
       </c>
       <c r="K22" s="48" t="n">
         <v>3861172.4632</v>
       </c>
       <c r="L22" s="48" t="n">
-        <v>3744233.8246</v>
+        <v>3744348.21873</v>
       </c>
       <c r="M22" s="48" t="n">
-        <v>4226481.8937</v>
-      </c>
-    </row>
-    <row r="23" spans="1:13">
+        <v>4229614.977689999</v>
+      </c>
+      <c r="N22" s="48" t="n">
+        <v>5318110.861</v>
+      </c>
+    </row>
+    <row r="23">
       <c r="A23" s="9" t="n"/>
-      <c r="B23" s="41" t="s">
-        <v>20</v>
+      <c r="B23" s="41" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    3-General Administration Expenses (-)</t>
+        </is>
       </c>
       <c r="C23" s="48" t="n">
         <v>1637863.49895</v>
@@ -1661,115 +1657,130 @@
         <v>2347149.17947</v>
       </c>
       <c r="F23" s="48" t="n">
-        <v>2697219.45812</v>
+        <v>2697669.53438</v>
       </c>
       <c r="G23" s="48" t="n">
-        <v>3063678.75357</v>
+        <v>3073739.35562</v>
       </c>
       <c r="H23" s="48" t="n">
-        <v>3294282.10326</v>
+        <v>3310498.75197</v>
       </c>
       <c r="I23" s="48" t="n">
-        <v>3862420.67566</v>
+        <v>4350339.34971</v>
       </c>
       <c r="J23" s="48" t="n">
-        <v>4857054.016220001</v>
+        <v>4866931.197980001</v>
       </c>
       <c r="K23" s="48" t="n">
         <v>5354728.30472</v>
       </c>
       <c r="L23" s="48" t="n">
-        <v>6514017.177619999</v>
+        <v>6517837.45175</v>
       </c>
       <c r="M23" s="48" t="n">
-        <v>8466833.298309999</v>
-      </c>
-    </row>
-    <row r="24" spans="1:13">
+        <v>8505757.18564</v>
+      </c>
+      <c r="N23" s="48" t="n">
+        <v>8853411.594000001</v>
+      </c>
+    </row>
+    <row r="24">
       <c r="A24" s="14" t="n"/>
-      <c r="B24" s="42" t="s">
-        <v>21</v>
+      <c r="B24" s="42" t="inlineStr">
+        <is>
+          <t>OPERATING PROFIT OR LOSS</t>
+        </is>
       </c>
       <c r="C24" s="46" t="n">
         <v>5456403.37162</v>
       </c>
       <c r="D24" s="47" t="n">
-        <v>7586003.077620001</v>
+        <v>7586003.07762</v>
       </c>
       <c r="E24" s="47" t="n">
         <v>3848164.76779</v>
       </c>
       <c r="F24" s="47" t="n">
-        <v>4984239.73824</v>
+        <v>4983789.661979999</v>
       </c>
       <c r="G24" s="47" t="n">
-        <v>6117912.09313</v>
+        <v>6098721.538269999</v>
       </c>
       <c r="H24" s="47" t="n">
-        <v>3196283.31161</v>
+        <v>3168096.78721</v>
       </c>
       <c r="I24" s="47" t="n">
-        <v>8323250.724909999</v>
+        <v>10007031.90173</v>
       </c>
       <c r="J24" s="47" t="n">
-        <v>16525096.74501</v>
+        <v>16519198.85878</v>
       </c>
       <c r="K24" s="47" t="n">
         <v>13641602.97155</v>
       </c>
       <c r="L24" s="47" t="n">
-        <v>20430210.77717</v>
+        <v>20429177.07131</v>
       </c>
       <c r="M24" s="47" t="n">
-        <v>45090838.81166001</v>
-      </c>
-    </row>
-    <row r="25" spans="1:13">
+        <v>45183300.57233001</v>
+      </c>
+      <c r="N24" s="47" t="n">
+        <v>55040461.131</v>
+      </c>
+    </row>
+    <row r="25">
       <c r="A25" s="14" t="n"/>
-      <c r="B25" s="42" t="s">
-        <v>22</v>
+      <c r="B25" s="42" t="inlineStr">
+        <is>
+          <t>F-INCOME FROM OTHER OPERATIONS</t>
+        </is>
       </c>
       <c r="C25" s="46" t="n">
-        <v>6500124.726770001</v>
+        <v>6500124.72677</v>
       </c>
       <c r="D25" s="47" t="n">
-        <v>8077000.11818</v>
+        <v>8077000.118179998</v>
       </c>
       <c r="E25" s="47" t="n">
         <v>10336038.78998</v>
       </c>
       <c r="F25" s="47" t="n">
-        <v>10722412.59058</v>
+        <v>10723058.98132</v>
       </c>
       <c r="G25" s="47" t="n">
-        <v>13955132.99538</v>
+        <v>14024471.49009</v>
       </c>
       <c r="H25" s="47" t="n">
-        <v>16351334.1985</v>
+        <v>16429914.16303</v>
       </c>
       <c r="I25" s="47" t="n">
-        <v>18903359.02867</v>
+        <v>20256394.52759</v>
       </c>
       <c r="J25" s="47" t="n">
-        <v>21697742.60673</v>
+        <v>21717000.10482</v>
       </c>
       <c r="K25" s="47" t="n">
         <v>31572891.24146</v>
       </c>
       <c r="L25" s="47" t="n">
-        <v>74945498.61827999</v>
+        <v>74946723.12654001</v>
       </c>
       <c r="M25" s="47" t="n">
-        <v>47554564.81206</v>
-      </c>
-    </row>
-    <row r="26" spans="1:13">
+        <v>47595668.15611</v>
+      </c>
+      <c r="N25" s="47" t="n">
+        <v>66583097.454</v>
+      </c>
+    </row>
+    <row r="26">
       <c r="A26" s="9" t="n"/>
-      <c r="B26" s="41" t="s">
-        <v>23</v>
+      <c r="B26" s="41" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    1-Dividends from Participations</t>
+        </is>
       </c>
       <c r="C26" s="48" t="n">
-        <v>77073.76125999998</v>
+        <v>77073.76126</v>
       </c>
       <c r="D26" s="48" t="n">
         <v>239834.85162</v>
@@ -1787,25 +1798,30 @@
         <v>191632.60628</v>
       </c>
       <c r="I26" s="48" t="n">
-        <v>193679.624</v>
+        <v>233933.13187</v>
       </c>
       <c r="J26" s="48" t="n">
-        <v>364201.24069</v>
+        <v>364248.77726</v>
       </c>
       <c r="K26" s="48" t="n">
-        <v>715739.8221699999</v>
+        <v>715739.8221700001</v>
       </c>
       <c r="L26" s="48" t="n">
         <v>1027573.39924</v>
       </c>
       <c r="M26" s="48" t="n">
-        <v>805643.03432</v>
-      </c>
-    </row>
-    <row r="27" spans="1:13">
+        <v>805651.4698199999</v>
+      </c>
+      <c r="N26" s="48" t="n">
+        <v>914269.495</v>
+      </c>
+    </row>
+    <row r="27">
       <c r="A27" s="9" t="n"/>
-      <c r="B27" s="41" t="s">
-        <v>24</v>
+      <c r="B27" s="41" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    2-Dividends from Affiliated Enterprises</t>
+        </is>
       </c>
       <c r="C27" s="48" t="n">
         <v>272064.33984</v>
@@ -1823,10 +1839,10 @@
         <v>1087678.58808</v>
       </c>
       <c r="H27" s="48" t="n">
-        <v>719251.4878499999</v>
+        <v>719251.48785</v>
       </c>
       <c r="I27" s="48" t="n">
-        <v>728713.53676</v>
+        <v>1013373.90765</v>
       </c>
       <c r="J27" s="48" t="n">
         <v>1486658.90848</v>
@@ -1840,14 +1856,19 @@
       <c r="M27" s="48" t="n">
         <v>3527147.78724</v>
       </c>
-    </row>
-    <row r="28" spans="1:13">
+      <c r="N27" s="48" t="n">
+        <v>3843785.865</v>
+      </c>
+    </row>
+    <row r="28">
       <c r="A28" s="9" t="n"/>
-      <c r="B28" s="41" t="s">
-        <v>25</v>
+      <c r="B28" s="41" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    3-Interest Income</t>
+        </is>
       </c>
       <c r="C28" s="48" t="n">
-        <v>372327.5923799999</v>
+        <v>372327.59238</v>
       </c>
       <c r="D28" s="48" t="n">
         <v>500114.16055</v>
@@ -1856,34 +1877,39 @@
         <v>738996.30925</v>
       </c>
       <c r="F28" s="48" t="n">
-        <v>999157.2537700001</v>
+        <v>999788.26728</v>
       </c>
       <c r="G28" s="48" t="n">
-        <v>1419377.86036</v>
+        <v>1420495.2433</v>
       </c>
       <c r="H28" s="48" t="n">
-        <v>1649572.77987</v>
+        <v>1661696.37977</v>
       </c>
       <c r="I28" s="48" t="n">
-        <v>1701536.02368</v>
+        <v>1896007.11847</v>
       </c>
       <c r="J28" s="48" t="n">
-        <v>2119367.81361</v>
+        <v>2124635.63662</v>
       </c>
       <c r="K28" s="48" t="n">
         <v>3071369.71574</v>
       </c>
       <c r="L28" s="48" t="n">
-        <v>5185448.919490001</v>
+        <v>5185799.208379999</v>
       </c>
       <c r="M28" s="48" t="n">
-        <v>6802982.986660001</v>
-      </c>
-    </row>
-    <row r="29" spans="1:13">
+        <v>6803811.3486</v>
+      </c>
+      <c r="N28" s="48" t="n">
+        <v>5878211.554</v>
+      </c>
+    </row>
+    <row r="29">
       <c r="A29" s="9" t="n"/>
-      <c r="B29" s="41" t="s">
-        <v>26</v>
+      <c r="B29" s="41" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    4-Commissions</t>
+        </is>
       </c>
       <c r="C29" s="48" t="n">
         <v>28.34544</v>
@@ -1904,7 +1930,7 @@
         <v>4865.410349999999</v>
       </c>
       <c r="I29" s="48" t="n">
-        <v>6023.990289999999</v>
+        <v>6023.99029</v>
       </c>
       <c r="J29" s="48" t="n">
         <v>2743.69253</v>
@@ -1918,11 +1944,16 @@
       <c r="M29" s="48" t="n">
         <v>20385.45108</v>
       </c>
-    </row>
-    <row r="30" spans="1:13">
+      <c r="N29" s="48" t="n">
+        <v>38174.398</v>
+      </c>
+    </row>
+    <row r="30">
       <c r="A30" s="9" t="n"/>
-      <c r="B30" s="41" t="s">
-        <v>27</v>
+      <c r="B30" s="41" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    5-Provisions that are Cancelled</t>
+        </is>
       </c>
       <c r="C30" s="48" t="n">
         <v>238486.25928</v>
@@ -1934,19 +1965,19 @@
         <v>1486177.82274</v>
       </c>
       <c r="F30" s="48" t="n">
-        <v>422641.74525</v>
+        <v>422641.7452499999</v>
       </c>
       <c r="G30" s="48" t="n">
-        <v>500002.1266</v>
+        <v>501072.34101</v>
       </c>
       <c r="H30" s="48" t="n">
-        <v>650983.1222800001</v>
+        <v>665916.3303</v>
       </c>
       <c r="I30" s="48" t="n">
-        <v>824560.17055</v>
+        <v>846073.6514</v>
       </c>
       <c r="J30" s="48" t="n">
-        <v>1002575.16649</v>
+        <v>1009080.48497</v>
       </c>
       <c r="K30" s="48" t="n">
         <v>929667.54136</v>
@@ -1957,50 +1988,60 @@
       <c r="M30" s="48" t="n">
         <v>1907004.44071</v>
       </c>
-    </row>
-    <row r="31" spans="1:13">
+      <c r="N30" s="48" t="n">
+        <v>1623456.895</v>
+      </c>
+    </row>
+    <row r="31">
       <c r="A31" s="9" t="n"/>
-      <c r="B31" s="41" t="s">
-        <v>28</v>
+      <c r="B31" s="41" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    6-Income from Sale of Securities</t>
+        </is>
       </c>
       <c r="C31" s="48" t="n">
         <v>2948.34851</v>
       </c>
       <c r="D31" s="48" t="n">
-        <v>5337.78743</v>
+        <v>5337.787429999998</v>
       </c>
       <c r="E31" s="48" t="n">
         <v>26582.4714</v>
       </c>
       <c r="F31" s="48" t="n">
-        <v>43288.46039999999</v>
+        <v>43288.4604</v>
       </c>
       <c r="G31" s="48" t="n">
-        <v>33316.20703</v>
+        <v>33399.68027</v>
       </c>
       <c r="H31" s="48" t="n">
-        <v>41677.75126</v>
+        <v>42750.62891000001</v>
       </c>
       <c r="I31" s="48" t="n">
-        <v>16607.28531</v>
+        <v>16642.44097</v>
       </c>
       <c r="J31" s="48" t="n">
         <v>104045.44707</v>
       </c>
       <c r="K31" s="48" t="n">
-        <v>639313.10486</v>
+        <v>639313.1048600001</v>
       </c>
       <c r="L31" s="48" t="n">
         <v>688264.9051900001</v>
       </c>
       <c r="M31" s="48" t="n">
-        <v>1397967.82217</v>
-      </c>
-    </row>
-    <row r="32" spans="1:13">
+        <v>1397978.04323</v>
+      </c>
+      <c r="N31" s="48" t="n">
+        <v>578906.6949999999</v>
+      </c>
+    </row>
+    <row r="32">
       <c r="A32" s="9" t="n"/>
-      <c r="B32" s="41" t="s">
-        <v>29</v>
+      <c r="B32" s="41" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    7-Exchange Profits</t>
+        </is>
       </c>
       <c r="C32" s="48" t="n">
         <v>2377520.07726</v>
@@ -2012,37 +2053,42 @@
         <v>3395517.53856</v>
       </c>
       <c r="F32" s="48" t="n">
-        <v>4110326.423210001</v>
+        <v>4110341.79418</v>
       </c>
       <c r="G32" s="48" t="n">
-        <v>5048524.0301</v>
+        <v>5049091.83316</v>
       </c>
       <c r="H32" s="48" t="n">
-        <v>7586320.59612</v>
+        <v>7592148.9985</v>
       </c>
       <c r="I32" s="48" t="n">
-        <v>8828511.72466</v>
+        <v>9459872.00962</v>
       </c>
       <c r="J32" s="48" t="n">
-        <v>9998086.748680001</v>
+        <v>10004985.31876</v>
       </c>
       <c r="K32" s="48" t="n">
         <v>16795066.49409</v>
       </c>
       <c r="L32" s="48" t="n">
-        <v>49396064.58234999</v>
+        <v>49396944.49859001</v>
       </c>
       <c r="M32" s="48" t="n">
-        <v>21648070.54609</v>
-      </c>
-    </row>
-    <row r="33" spans="1:13">
+        <v>21686860.03477</v>
+      </c>
+      <c r="N32" s="48" t="n">
+        <v>35808005.233</v>
+      </c>
+    </row>
+    <row r="33">
       <c r="A33" s="9" t="n"/>
-      <c r="B33" s="41" t="s">
-        <v>30</v>
+      <c r="B33" s="41" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    8-Discount Income</t>
+        </is>
       </c>
       <c r="C33" s="48" t="n">
-        <v>6219.002509999999</v>
+        <v>6219.00251</v>
       </c>
       <c r="D33" s="48" t="n">
         <v>6017.87729</v>
@@ -2057,7 +2103,7 @@
         <v>2457.55368</v>
       </c>
       <c r="H33" s="48" t="n">
-        <v>44.30117000000001</v>
+        <v>44.30117</v>
       </c>
       <c r="I33" s="48" t="n">
         <v>0</v>
@@ -2074,11 +2120,16 @@
       <c r="M33" s="48" t="n">
         <v>24.06017</v>
       </c>
-    </row>
-    <row r="34" spans="1:13">
+      <c r="N33" s="48" t="n">
+        <v>4478124.622</v>
+      </c>
+    </row>
+    <row r="34">
       <c r="A34" s="9" t="n"/>
-      <c r="B34" s="41" t="s">
-        <v>31</v>
+      <c r="B34" s="41" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    9-Inflation Adjustment Profits</t>
+        </is>
       </c>
       <c r="C34" s="48" t="n">
         <v>102.76674</v>
@@ -2113,95 +2164,110 @@
       <c r="M34" s="48" t="n">
         <v>0.00714</v>
       </c>
-    </row>
-    <row r="35" spans="1:13">
+      <c r="N34" s="48" t="n">
+        <v>0.792</v>
+      </c>
+    </row>
+    <row r="35">
       <c r="A35" s="9" t="n"/>
-      <c r="B35" s="41" t="s">
-        <v>32</v>
+      <c r="B35" s="41" t="inlineStr">
+        <is>
+          <t xml:space="preserve">   10-Other Income</t>
+        </is>
       </c>
       <c r="C35" s="48" t="n">
         <v>3153354.23355</v>
       </c>
       <c r="D35" s="48" t="n">
-        <v>3357099.53075</v>
+        <v>3357099.530749999</v>
       </c>
       <c r="E35" s="48" t="n">
-        <v>3799395.51124</v>
+        <v>3799395.511240001</v>
       </c>
       <c r="F35" s="48" t="n">
-        <v>3901637.492860001</v>
+        <v>3901637.49912</v>
       </c>
       <c r="G35" s="48" t="n">
-        <v>5638330.14977</v>
+        <v>5704829.770830001</v>
       </c>
       <c r="H35" s="48" t="n">
-        <v>5506968.23651</v>
+        <v>5551590.11309</v>
       </c>
       <c r="I35" s="48" t="n">
-        <v>6603666.738259999</v>
+        <v>6784408.34216</v>
       </c>
       <c r="J35" s="48" t="n">
-        <v>6619783.36734</v>
+        <v>6620321.617289999</v>
       </c>
       <c r="K35" s="48" t="n">
         <v>6769761.228</v>
       </c>
       <c r="L35" s="48" t="n">
-        <v>11560262.17233</v>
+        <v>11560256.47546</v>
       </c>
       <c r="M35" s="48" t="n">
-        <v>11445338.67648</v>
-      </c>
-    </row>
-    <row r="36" spans="1:13">
+        <v>11446805.51335</v>
+      </c>
+      <c r="N35" s="48" t="n">
+        <v>13420161.905</v>
+      </c>
+    </row>
+    <row r="36">
       <c r="A36" s="14" t="n"/>
-      <c r="B36" s="38" t="s">
-        <v>33</v>
+      <c r="B36" s="38" t="inlineStr">
+        <is>
+          <t>G-EXPENSES FROM OTHER OPERATIONS (-)</t>
+        </is>
       </c>
       <c r="C36" s="46" t="n">
-        <v>5158506.41819</v>
+        <v>5158506.418190001</v>
       </c>
       <c r="D36" s="47" t="n">
-        <v>4888283.467610001</v>
+        <v>4888283.467609999</v>
       </c>
       <c r="E36" s="47" t="n">
         <v>7606045.52176</v>
       </c>
       <c r="F36" s="47" t="n">
-        <v>6084693.92133</v>
+        <v>6084734.83863</v>
       </c>
       <c r="G36" s="47" t="n">
-        <v>14769854.7201</v>
+        <v>14846502.58271</v>
       </c>
       <c r="H36" s="47" t="n">
-        <v>13735234.35699</v>
+        <v>13848164.75033</v>
       </c>
       <c r="I36" s="47" t="n">
-        <v>21573007.24643999</v>
+        <v>23043885.83053</v>
       </c>
       <c r="J36" s="47" t="n">
-        <v>26060751.01959</v>
+        <v>26065718.36326</v>
       </c>
       <c r="K36" s="47" t="n">
         <v>27772238.72086</v>
       </c>
       <c r="L36" s="47" t="n">
-        <v>80127061.44338</v>
+        <v>80131256.95954001</v>
       </c>
       <c r="M36" s="47" t="n">
-        <v>42660329.82864001</v>
-      </c>
-    </row>
-    <row r="37" spans="1:13">
+        <v>42736594.87305</v>
+      </c>
+      <c r="N36" s="47" t="n">
+        <v>73519863.567</v>
+      </c>
+    </row>
+    <row r="37">
       <c r="A37" s="9" t="n"/>
-      <c r="B37" s="3" t="s">
-        <v>34</v>
+      <c r="B37" s="3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    1-Commissions (-)</t>
+        </is>
       </c>
       <c r="C37" s="48" t="n">
         <v>2920.72607</v>
       </c>
       <c r="D37" s="48" t="n">
-        <v>6001.3524</v>
+        <v>6001.352400000001</v>
       </c>
       <c r="E37" s="48" t="n">
         <v>12979.67342</v>
@@ -2210,16 +2276,16 @@
         <v>3279.78686</v>
       </c>
       <c r="G37" s="48" t="n">
-        <v>11068.57941</v>
+        <v>11120.69741</v>
       </c>
       <c r="H37" s="48" t="n">
-        <v>2862.10902</v>
+        <v>2876.40749</v>
       </c>
       <c r="I37" s="48" t="n">
-        <v>23541.54425</v>
+        <v>24100.98696</v>
       </c>
       <c r="J37" s="48" t="n">
-        <v>16371.71936</v>
+        <v>16380.80099</v>
       </c>
       <c r="K37" s="48" t="n">
         <v>11880.88054</v>
@@ -2228,16 +2294,21 @@
         <v>31990.706</v>
       </c>
       <c r="M37" s="48" t="n">
-        <v>27221.59251</v>
-      </c>
-    </row>
-    <row r="38" spans="1:13">
+        <v>27247.83543</v>
+      </c>
+      <c r="N37" s="48" t="n">
+        <v>20200.686</v>
+      </c>
+    </row>
+    <row r="38">
       <c r="A38" s="9" t="n"/>
-      <c r="B38" s="3" t="s">
-        <v>35</v>
+      <c r="B38" s="3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    2-Provision Expenses (-)</t>
+        </is>
       </c>
       <c r="C38" s="48" t="n">
-        <v>713785.84904</v>
+        <v>713785.8490400001</v>
       </c>
       <c r="D38" s="48" t="n">
         <v>1295250.72118</v>
@@ -2249,31 +2320,36 @@
         <v>848317.52866</v>
       </c>
       <c r="G38" s="48" t="n">
-        <v>1460985.34336</v>
+        <v>1536822.94729</v>
       </c>
       <c r="H38" s="48" t="n">
-        <v>837424.9143000001</v>
+        <v>943460.326</v>
       </c>
       <c r="I38" s="48" t="n">
-        <v>755089.3601200001</v>
+        <v>838422.74197</v>
       </c>
       <c r="J38" s="48" t="n">
-        <v>1427628.61838</v>
+        <v>1427641.74096</v>
       </c>
       <c r="K38" s="48" t="n">
         <v>1608434.97749</v>
       </c>
       <c r="L38" s="48" t="n">
-        <v>2686422.458370001</v>
+        <v>2686422.45837</v>
       </c>
       <c r="M38" s="48" t="n">
         <v>3256086.910060001</v>
       </c>
-    </row>
-    <row r="39" spans="1:13">
+      <c r="N38" s="48" t="n">
+        <v>4299279.974</v>
+      </c>
+    </row>
+    <row r="39">
       <c r="A39" s="9" t="n"/>
-      <c r="B39" s="3" t="s">
-        <v>36</v>
+      <c r="B39" s="3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    3-Loss from Sale of Securities (-)</t>
+        </is>
       </c>
       <c r="C39" s="48" t="n">
         <v>57.76886</v>
@@ -2291,28 +2367,33 @@
         <v>2039.84959</v>
       </c>
       <c r="H39" s="48" t="n">
-        <v>3421.28229</v>
+        <v>3542.3985</v>
       </c>
       <c r="I39" s="48" t="n">
-        <v>9050.326070000001</v>
+        <v>9051.892539999999</v>
       </c>
       <c r="J39" s="48" t="n">
         <v>63234.90818999999</v>
       </c>
       <c r="K39" s="48" t="n">
-        <v>95893.93087000003</v>
+        <v>95893.93087000001</v>
       </c>
       <c r="L39" s="48" t="n">
-        <v>76411.40949000001</v>
+        <v>76411.40948999999</v>
       </c>
       <c r="M39" s="48" t="n">
         <v>125845.88036</v>
       </c>
-    </row>
-    <row r="40" spans="1:13">
+      <c r="N39" s="48" t="n">
+        <v>99531.791</v>
+      </c>
+    </row>
+    <row r="40">
       <c r="A40" s="9" t="n"/>
-      <c r="B40" s="3" t="s">
-        <v>37</v>
+      <c r="B40" s="3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    4-Exchange Losses (-)</t>
+        </is>
       </c>
       <c r="C40" s="48" t="n">
         <v>1631201.88005</v>
@@ -2324,34 +2405,39 @@
         <v>4068709.68174</v>
       </c>
       <c r="F40" s="48" t="n">
-        <v>2606848.60911</v>
+        <v>2606885.43926</v>
       </c>
       <c r="G40" s="48" t="n">
-        <v>9074016.08663</v>
+        <v>9074397.736049999</v>
       </c>
       <c r="H40" s="48" t="n">
-        <v>8781474.45163</v>
+        <v>8787406.75179</v>
       </c>
       <c r="I40" s="48" t="n">
-        <v>15186094.41506</v>
+        <v>16548825.69592</v>
       </c>
       <c r="J40" s="48" t="n">
-        <v>19179579.97907</v>
+        <v>19183847.07288</v>
       </c>
       <c r="K40" s="48" t="n">
         <v>20666926.55633</v>
       </c>
       <c r="L40" s="48" t="n">
-        <v>70201919.22559001</v>
+        <v>70206109.77468</v>
       </c>
       <c r="M40" s="48" t="n">
-        <v>30267615.74839</v>
-      </c>
-    </row>
-    <row r="41" spans="1:13">
+        <v>30356903.90094</v>
+      </c>
+      <c r="N40" s="48" t="n">
+        <v>54343092.276</v>
+      </c>
+    </row>
+    <row r="41">
       <c r="A41" s="9" t="n"/>
-      <c r="B41" s="3" t="s">
-        <v>38</v>
+      <c r="B41" s="3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    5-Discount Costs (-)</t>
+        </is>
       </c>
       <c r="C41" s="48" t="n">
         <v>90.80098</v>
@@ -2363,16 +2449,16 @@
         <v>105.9055</v>
       </c>
       <c r="F41" s="48" t="n">
-        <v>921.5448100000001</v>
+        <v>921.54481</v>
       </c>
       <c r="G41" s="48" t="n">
         <v>702.3309400000001</v>
       </c>
       <c r="H41" s="48" t="n">
-        <v>270.25445</v>
+        <v>342.50069</v>
       </c>
       <c r="I41" s="48" t="n">
-        <v>564.70663</v>
+        <v>645.32933</v>
       </c>
       <c r="J41" s="48" t="n">
         <v>24419.63054</v>
@@ -2386,11 +2472,16 @@
       <c r="M41" s="48" t="n">
         <v>1302.19741</v>
       </c>
-    </row>
-    <row r="42" spans="1:13">
+      <c r="N41" s="48" t="n">
+        <v>6648186.476</v>
+      </c>
+    </row>
+    <row r="42">
       <c r="A42" s="9" t="n"/>
-      <c r="B42" s="3" t="s">
-        <v>39</v>
+      <c r="B42" s="3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    6-Inflation Adjustment Losses (-)</t>
+        </is>
       </c>
       <c r="C42" s="48" t="n">
         <v>216.84628</v>
@@ -2425,11 +2516,16 @@
       <c r="M42" s="48" t="n">
         <v>18857.09851</v>
       </c>
-    </row>
-    <row r="43" spans="1:13">
+      <c r="N42" s="48" t="n">
+        <v>8.355</v>
+      </c>
+    </row>
+    <row r="43">
       <c r="A43" s="9" t="n"/>
-      <c r="B43" s="3" t="s">
-        <v>40</v>
+      <c r="B43" s="3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    7-Other Expenditures (-)</t>
+        </is>
       </c>
       <c r="C43" s="48" t="n">
         <v>2810232.54691</v>
@@ -2441,34 +2537,39 @@
         <v>2832994.03611</v>
       </c>
       <c r="F43" s="48" t="n">
-        <v>2617974.50667</v>
+        <v>2617978.59382</v>
       </c>
       <c r="G43" s="48" t="n">
-        <v>4221042.53017</v>
+        <v>4221419.02143</v>
       </c>
       <c r="H43" s="48" t="n">
-        <v>4109781.3453</v>
+        <v>4110536.36586</v>
       </c>
       <c r="I43" s="48" t="n">
-        <v>5598666.89428</v>
+        <v>5622839.18378</v>
       </c>
       <c r="J43" s="48" t="n">
-        <v>5349516.16405</v>
+        <v>5350194.2097</v>
       </c>
       <c r="K43" s="48" t="n">
-        <v>5380420.6983</v>
+        <v>5380420.698299999</v>
       </c>
       <c r="L43" s="48" t="n">
-        <v>7092930.03897</v>
+        <v>7092935.00604</v>
       </c>
       <c r="M43" s="48" t="n">
-        <v>8963400.4014</v>
-      </c>
-    </row>
-    <row r="44" spans="1:13">
+        <v>8950351.050340001</v>
+      </c>
+      <c r="N43" s="48" t="n">
+        <v>8109564.009</v>
+      </c>
+    </row>
+    <row r="44">
       <c r="A44" s="14" t="n"/>
-      <c r="B44" s="38" t="s">
-        <v>41</v>
+      <c r="B44" s="38" t="inlineStr">
+        <is>
+          <t>H-FINANCING EXPENSES  (-)</t>
+        </is>
       </c>
       <c r="C44" s="46" t="n">
         <v>1776028.51724</v>
@@ -2480,37 +2581,42 @@
         <v>4026977.60645</v>
       </c>
       <c r="F44" s="47" t="n">
-        <v>2439203.37801</v>
+        <v>2439203.49801</v>
       </c>
       <c r="G44" s="47" t="n">
-        <v>5457011.20342</v>
+        <v>5470946.078100001</v>
       </c>
       <c r="H44" s="47" t="n">
-        <v>5773804.52417</v>
+        <v>5798843.29457</v>
       </c>
       <c r="I44" s="47" t="n">
-        <v>9646032.301110001</v>
+        <v>10744849.89923</v>
       </c>
       <c r="J44" s="47" t="n">
-        <v>13176756.63293</v>
+        <v>13177675.8848</v>
       </c>
       <c r="K44" s="47" t="n">
         <v>17142765.64797</v>
       </c>
       <c r="L44" s="47" t="n">
-        <v>39466799.76492</v>
+        <v>39467822.32549</v>
       </c>
       <c r="M44" s="47" t="n">
-        <v>31819240.66617</v>
-      </c>
-    </row>
-    <row r="45" spans="1:13">
+        <v>31875682.7709</v>
+      </c>
+      <c r="N44" s="47" t="n">
+        <v>42189457.544</v>
+      </c>
+    </row>
+    <row r="45">
       <c r="A45" s="9" t="n"/>
-      <c r="B45" s="41" t="s">
-        <v>42</v>
+      <c r="B45" s="41" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    1-Short-term Financing Expenses (-)</t>
+        </is>
       </c>
       <c r="C45" s="48" t="n">
-        <v>610200.3533000001</v>
+        <v>610200.3533</v>
       </c>
       <c r="D45" s="48" t="n">
         <v>973707.7564500001</v>
@@ -2519,40 +2625,45 @@
         <v>1820012.94695</v>
       </c>
       <c r="F45" s="48" t="n">
-        <v>1263767.86224</v>
+        <v>1263767.98224</v>
       </c>
       <c r="G45" s="48" t="n">
-        <v>2381678.321020001</v>
+        <v>2395613.1957</v>
       </c>
       <c r="H45" s="48" t="n">
-        <v>3203866.99895</v>
+        <v>3209418.93526</v>
       </c>
       <c r="I45" s="48" t="n">
-        <v>4711553.20316</v>
+        <v>5333805.01557</v>
       </c>
       <c r="J45" s="48" t="n">
-        <v>7359561.988630001</v>
+        <v>7359974.86262</v>
       </c>
       <c r="K45" s="48" t="n">
         <v>9087195.777709998</v>
       </c>
       <c r="L45" s="48" t="n">
-        <v>20581956.11451</v>
+        <v>20582978.67508</v>
       </c>
       <c r="M45" s="48" t="n">
-        <v>19391094.84936</v>
-      </c>
-    </row>
-    <row r="46" spans="1:13">
+        <v>19453475.51799</v>
+      </c>
+      <c r="N45" s="48" t="n">
+        <v>20286737.268</v>
+      </c>
+    </row>
+    <row r="46">
       <c r="A46" s="9" t="n"/>
-      <c r="B46" s="41" t="s">
-        <v>43</v>
+      <c r="B46" s="41" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    2-Long-term Financing Expenses (-)</t>
+        </is>
       </c>
       <c r="C46" s="48" t="n">
         <v>1165828.16394</v>
       </c>
       <c r="D46" s="48" t="n">
-        <v>860114.70225</v>
+        <v>860114.7022500001</v>
       </c>
       <c r="E46" s="48" t="n">
         <v>2206964.6595</v>
@@ -2564,13 +2675,13 @@
         <v>3075332.8824</v>
       </c>
       <c r="H46" s="48" t="n">
-        <v>2569937.52522</v>
+        <v>2589424.35931</v>
       </c>
       <c r="I46" s="48" t="n">
-        <v>4934479.097949999</v>
+        <v>5411044.88366</v>
       </c>
       <c r="J46" s="48" t="n">
-        <v>5817194.644299999</v>
+        <v>5817701.022179999</v>
       </c>
       <c r="K46" s="48" t="n">
         <v>8055569.87026</v>
@@ -2579,52 +2690,62 @@
         <v>18884843.65041</v>
       </c>
       <c r="M46" s="48" t="n">
-        <v>12428145.81681</v>
-      </c>
-    </row>
-    <row r="47" spans="1:13">
+        <v>12422207.25291</v>
+      </c>
+      <c r="N46" s="48" t="n">
+        <v>21902720.276</v>
+      </c>
+    </row>
+    <row r="47">
       <c r="A47" s="14" t="n"/>
-      <c r="B47" s="42" t="s">
-        <v>44</v>
+      <c r="B47" s="42" t="inlineStr">
+        <is>
+          <t>PROFIT BEFORE EXTRAORDINARY ITEMS</t>
+        </is>
       </c>
       <c r="C47" s="46" t="n">
         <v>5021993.162959999</v>
       </c>
       <c r="D47" s="47" t="n">
-        <v>8940897.26949</v>
+        <v>8940897.269489998</v>
       </c>
       <c r="E47" s="47" t="n">
         <v>2551180.42956</v>
       </c>
       <c r="F47" s="47" t="n">
-        <v>7182755.029479999</v>
+        <v>7182910.30666</v>
       </c>
       <c r="G47" s="47" t="n">
-        <v>-153820.83501</v>
+        <v>-194255.6324500002</v>
       </c>
       <c r="H47" s="47" t="n">
-        <v>38578.62894999995</v>
+        <v>-48997.09465999997</v>
       </c>
       <c r="I47" s="47" t="n">
-        <v>-3992429.79397</v>
+        <v>-3525309.30044</v>
       </c>
       <c r="J47" s="47" t="n">
-        <v>-1014668.30078</v>
+        <v>-1007195.28446</v>
       </c>
       <c r="K47" s="47" t="n">
         <v>299489.84418</v>
       </c>
       <c r="L47" s="47" t="n">
-        <v>-24218151.81285</v>
+        <v>-24223179.08718</v>
       </c>
       <c r="M47" s="47" t="n">
-        <v>18165833.12891</v>
-      </c>
-    </row>
-    <row r="48" spans="1:13">
+        <v>18166691.08449</v>
+      </c>
+      <c r="N47" s="47" t="n">
+        <v>5914237.474</v>
+      </c>
+    </row>
+    <row r="48">
       <c r="A48" s="14" t="n"/>
-      <c r="B48" s="42" t="s">
-        <v>45</v>
+      <c r="B48" s="42" t="inlineStr">
+        <is>
+          <t>I-EXTRAORDINARY INCOME AND PROFITS</t>
+        </is>
       </c>
       <c r="C48" s="46" t="n">
         <v>2280059.00617</v>
@@ -2636,40 +2757,45 @@
         <v>11401692.7575</v>
       </c>
       <c r="F48" s="47" t="n">
-        <v>3176125.324370001</v>
+        <v>3176128.44578</v>
       </c>
       <c r="G48" s="47" t="n">
-        <v>4812148.50126</v>
+        <v>4851233.93555</v>
       </c>
       <c r="H48" s="47" t="n">
-        <v>2112086.59868</v>
+        <v>2122774.35881</v>
       </c>
       <c r="I48" s="47" t="n">
-        <v>1572369.25076</v>
+        <v>1754763.61655</v>
       </c>
       <c r="J48" s="47" t="n">
-        <v>2599324.62098</v>
+        <v>2599426.83753</v>
       </c>
       <c r="K48" s="47" t="n">
         <v>2761937.55526</v>
       </c>
       <c r="L48" s="47" t="n">
-        <v>4221653.16244</v>
+        <v>4222449.34983</v>
       </c>
       <c r="M48" s="47" t="n">
-        <v>4591048.699069999</v>
-      </c>
-    </row>
-    <row r="49" spans="1:13">
+        <v>4595684.64958</v>
+      </c>
+      <c r="N48" s="47" t="n">
+        <v>3855434.139</v>
+      </c>
+    </row>
+    <row r="49">
       <c r="A49" s="9" t="n"/>
-      <c r="B49" s="41" t="s">
-        <v>46</v>
+      <c r="B49" s="41" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    1-Profits and Income from Previous Period</t>
+        </is>
       </c>
       <c r="C49" s="48" t="n">
         <v>32704.00022</v>
       </c>
       <c r="D49" s="48" t="n">
-        <v>39014.31088999999</v>
+        <v>39014.31089</v>
       </c>
       <c r="E49" s="48" t="n">
         <v>209598.61725</v>
@@ -2678,16 +2804,16 @@
         <v>333426.02209</v>
       </c>
       <c r="G49" s="48" t="n">
-        <v>742482.57106</v>
+        <v>742901.0409199999</v>
       </c>
       <c r="H49" s="48" t="n">
-        <v>94659.62720999999</v>
+        <v>94739.12736999999</v>
       </c>
       <c r="I49" s="48" t="n">
-        <v>106668.16335</v>
+        <v>110143.15775</v>
       </c>
       <c r="J49" s="48" t="n">
-        <v>76214.01100999999</v>
+        <v>76280.17900999999</v>
       </c>
       <c r="K49" s="48" t="n">
         <v>126245.07518</v>
@@ -2696,58 +2822,68 @@
         <v>264197.61929</v>
       </c>
       <c r="M49" s="48" t="n">
-        <v>95952.54881000002</v>
-      </c>
-    </row>
-    <row r="50" spans="1:13">
+        <v>95953.01767</v>
+      </c>
+      <c r="N49" s="48" t="n">
+        <v>269354.095</v>
+      </c>
+    </row>
+    <row r="50">
       <c r="A50" s="9" t="n"/>
-      <c r="B50" s="41" t="s">
-        <v>47</v>
+      <c r="B50" s="41" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    2-Other Extraordinary Profits and Income</t>
+        </is>
       </c>
       <c r="C50" s="48" t="n">
         <v>2247355.00595</v>
       </c>
       <c r="D50" s="48" t="n">
-        <v>3066840.614449999</v>
+        <v>3066840.61445</v>
       </c>
       <c r="E50" s="48" t="n">
         <v>11192094.14025</v>
       </c>
       <c r="F50" s="48" t="n">
-        <v>2842699.30228</v>
+        <v>2842702.42369</v>
       </c>
       <c r="G50" s="48" t="n">
-        <v>4069665.9302</v>
+        <v>4108332.89463</v>
       </c>
       <c r="H50" s="48" t="n">
-        <v>2017426.97147</v>
+        <v>2028035.23144</v>
       </c>
       <c r="I50" s="48" t="n">
-        <v>1465701.08741</v>
+        <v>1644620.4588</v>
       </c>
       <c r="J50" s="48" t="n">
-        <v>2523110.60997</v>
+        <v>2523146.65852</v>
       </c>
       <c r="K50" s="48" t="n">
         <v>2635692.48008</v>
       </c>
       <c r="L50" s="48" t="n">
-        <v>3957455.54315</v>
+        <v>3958251.73054</v>
       </c>
       <c r="M50" s="48" t="n">
-        <v>4495096.15026</v>
-      </c>
-    </row>
-    <row r="51" spans="1:13">
+        <v>4499731.63191</v>
+      </c>
+      <c r="N50" s="48" t="n">
+        <v>3586080.044</v>
+      </c>
+    </row>
+    <row r="51">
       <c r="A51" s="14" t="n"/>
-      <c r="B51" s="38" t="s">
-        <v>48</v>
+      <c r="B51" s="38" t="inlineStr">
+        <is>
+          <t>J-EXTRA ORDINARY EXPENSES AND LOSSES (-)</t>
+        </is>
       </c>
       <c r="C51" s="46" t="n">
         <v>3924969.76683</v>
       </c>
       <c r="D51" s="47" t="n">
-        <v>5190790.903120001</v>
+        <v>5190790.90312</v>
       </c>
       <c r="E51" s="47" t="n">
         <v>13178347.62537</v>
@@ -2756,34 +2892,39 @@
         <v>4120734.30147</v>
       </c>
       <c r="G51" s="47" t="n">
-        <v>9569618.56641</v>
+        <v>9687436.334870001</v>
       </c>
       <c r="H51" s="47" t="n">
-        <v>4457522.93776</v>
+        <v>4698909.59202</v>
       </c>
       <c r="I51" s="47" t="n">
-        <v>2028152.42567</v>
+        <v>3148811.97499</v>
       </c>
       <c r="J51" s="47" t="n">
-        <v>2839397.41536</v>
+        <v>2841316.1612</v>
       </c>
       <c r="K51" s="47" t="n">
         <v>4156198.2437</v>
       </c>
       <c r="L51" s="47" t="n">
-        <v>3896197.74352</v>
+        <v>3903487.96938</v>
       </c>
       <c r="M51" s="47" t="n">
-        <v>4395485.83161</v>
-      </c>
-    </row>
-    <row r="52" spans="1:13">
+        <v>4419160.8426</v>
+      </c>
+      <c r="N51" s="47" t="n">
+        <v>5340247.27</v>
+      </c>
+    </row>
+    <row r="52">
       <c r="A52" s="9" t="n"/>
-      <c r="B52" s="41" t="s">
-        <v>49</v>
+      <c r="B52" s="41" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    1-Losses from non-Operating Parts (-)</t>
+        </is>
       </c>
       <c r="C52" s="48" t="n">
-        <v>829120.0043699999</v>
+        <v>829120.00437</v>
       </c>
       <c r="D52" s="48" t="n">
         <v>974837.59187</v>
@@ -2795,109 +2936,124 @@
         <v>865536.3411500001</v>
       </c>
       <c r="G52" s="48" t="n">
-        <v>567957.3113799999</v>
+        <v>610105.62574</v>
       </c>
       <c r="H52" s="48" t="n">
-        <v>801890.62126</v>
+        <v>806780.89203</v>
       </c>
       <c r="I52" s="48" t="n">
-        <v>342106.38897</v>
+        <v>1031916.73399</v>
       </c>
       <c r="J52" s="48" t="n">
-        <v>909925.8185500001</v>
+        <v>909925.81855</v>
       </c>
       <c r="K52" s="48" t="n">
         <v>1200099.51088</v>
       </c>
       <c r="L52" s="48" t="n">
-        <v>681643.5692200002</v>
+        <v>687333.8035</v>
       </c>
       <c r="M52" s="48" t="n">
-        <v>823776.51471</v>
-      </c>
-    </row>
-    <row r="53" spans="1:13">
+        <v>823993.548</v>
+      </c>
+      <c r="N52" s="48" t="n">
+        <v>1141480.193</v>
+      </c>
+    </row>
+    <row r="53">
       <c r="A53" s="9" t="n"/>
-      <c r="B53" s="41" t="s">
-        <v>50</v>
+      <c r="B53" s="41" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    2-Losses from Previous Periods (-)</t>
+        </is>
       </c>
       <c r="C53" s="48" t="n">
-        <v>735030.0921099999</v>
+        <v>735030.09211</v>
       </c>
       <c r="D53" s="48" t="n">
-        <v>603174.35633</v>
+        <v>603174.3563300001</v>
       </c>
       <c r="E53" s="48" t="n">
         <v>3098634.23483</v>
       </c>
       <c r="F53" s="48" t="n">
-        <v>456334.3754199999</v>
+        <v>456334.37542</v>
       </c>
       <c r="G53" s="48" t="n">
-        <v>1204620.42173</v>
+        <v>1277339.33565</v>
       </c>
       <c r="H53" s="48" t="n">
-        <v>305844.51401</v>
+        <v>409535.7679</v>
       </c>
       <c r="I53" s="48" t="n">
-        <v>201081.59592</v>
+        <v>300129.01293</v>
       </c>
       <c r="J53" s="48" t="n">
-        <v>264877.86883</v>
+        <v>266632.2736</v>
       </c>
       <c r="K53" s="48" t="n">
         <v>458172.8633</v>
       </c>
       <c r="L53" s="48" t="n">
-        <v>416407.85134</v>
+        <v>416407.94051</v>
       </c>
       <c r="M53" s="48" t="n">
-        <v>602448.1097500001</v>
-      </c>
-    </row>
-    <row r="54" spans="1:13">
+        <v>602463.04412</v>
+      </c>
+      <c r="N53" s="48" t="n">
+        <v>546346.812</v>
+      </c>
+    </row>
+    <row r="54">
       <c r="A54" s="9" t="n"/>
-      <c r="B54" s="41" t="s">
-        <v>51</v>
+      <c r="B54" s="41" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    3-Other Extraordinary Expenses (-)</t>
+        </is>
       </c>
       <c r="C54" s="48" t="n">
         <v>2360819.67035</v>
       </c>
       <c r="D54" s="48" t="n">
-        <v>3612778.954919999</v>
+        <v>3612778.95492</v>
       </c>
       <c r="E54" s="48" t="n">
-        <v>9327766.991859999</v>
+        <v>9327766.99186</v>
       </c>
       <c r="F54" s="48" t="n">
         <v>2798863.5849</v>
       </c>
       <c r="G54" s="48" t="n">
-        <v>7797040.833299999</v>
+        <v>7799991.373480001</v>
       </c>
       <c r="H54" s="48" t="n">
-        <v>3349787.80249</v>
+        <v>3482592.93209</v>
       </c>
       <c r="I54" s="48" t="n">
-        <v>1484964.44078</v>
+        <v>1816766.22807</v>
       </c>
       <c r="J54" s="48" t="n">
-        <v>1664593.72798</v>
+        <v>1664758.06905</v>
       </c>
       <c r="K54" s="48" t="n">
         <v>2497925.86952</v>
       </c>
       <c r="L54" s="48" t="n">
-        <v>2798146.32296</v>
+        <v>2799746.22537</v>
       </c>
       <c r="M54" s="48" t="n">
-        <v>2969261.20715</v>
-      </c>
-    </row>
-    <row r="55" spans="1:13">
+        <v>2992704.25048</v>
+      </c>
+      <c r="N54" s="48" t="n">
+        <v>3652420.265</v>
+      </c>
+    </row>
+    <row r="55">
       <c r="A55" s="14" t="n"/>
-      <c r="B55" s="42" t="s">
-        <v>52</v>
+      <c r="B55" s="42" t="inlineStr">
+        <is>
+          <t>PROFIT OR LOSS BEFORE TAXES</t>
+        </is>
       </c>
       <c r="C55" s="46" t="n">
         <v>3377082.4023</v>
@@ -2906,37 +3062,42 @@
         <v>6855961.29171</v>
       </c>
       <c r="E55" s="47" t="n">
-        <v>774525.5616899999</v>
+        <v>774525.56169</v>
       </c>
       <c r="F55" s="47" t="n">
-        <v>6238146.052379999</v>
+        <v>6238304.45097</v>
       </c>
       <c r="G55" s="47" t="n">
-        <v>-4911290.90016</v>
+        <v>-5030458.031769999</v>
       </c>
       <c r="H55" s="47" t="n">
-        <v>-2306857.71013</v>
+        <v>-2625132.32787</v>
       </c>
       <c r="I55" s="47" t="n">
-        <v>-4448212.968880001</v>
+        <v>-4919357.65888</v>
       </c>
       <c r="J55" s="47" t="n">
-        <v>-1254741.09516</v>
+        <v>-1249084.60813</v>
       </c>
       <c r="K55" s="47" t="n">
         <v>-1094770.84426</v>
       </c>
       <c r="L55" s="47" t="n">
-        <v>-23892696.39393</v>
+        <v>-23904217.70673</v>
       </c>
       <c r="M55" s="47" t="n">
-        <v>18361395.99637</v>
-      </c>
-    </row>
-    <row r="56" spans="1:13">
+        <v>18343214.89147</v>
+      </c>
+      <c r="N55" s="47" t="n">
+        <v>4429424.343</v>
+      </c>
+    </row>
+    <row r="56">
       <c r="A56" s="14" t="n"/>
-      <c r="B56" s="42" t="s">
-        <v>53</v>
+      <c r="B56" s="42" t="inlineStr">
+        <is>
+          <t>K-PROVISIONS FOR INC.TAX &amp; OTH.LIAB.TO GOV.</t>
+        </is>
       </c>
       <c r="C56" s="46" t="n">
         <v>441934.59951</v>
@@ -2945,7 +3106,7 @@
         <v>1289500.0996</v>
       </c>
       <c r="E56" s="47" t="n">
-        <v>851552.1366499999</v>
+        <v>851552.13665</v>
       </c>
       <c r="F56" s="47" t="n">
         <v>1137738.42643</v>
@@ -2954,64 +3115,72 @@
         <v>1619885.39261</v>
       </c>
       <c r="H56" s="47" t="n">
-        <v>1089629.33693</v>
+        <v>1089703.91763</v>
       </c>
       <c r="I56" s="47" t="n">
-        <v>1215222.42227</v>
+        <v>1217727.4692</v>
       </c>
       <c r="J56" s="47" t="n">
-        <v>1500362.93805</v>
+        <v>1500770.15332</v>
       </c>
       <c r="K56" s="47" t="n">
         <v>1497074.5487</v>
       </c>
       <c r="L56" s="47" t="n">
-        <v>1886395.46382</v>
+        <v>1886474.60557</v>
       </c>
       <c r="M56" s="47" t="n">
-        <v>2943201.6003</v>
-      </c>
-    </row>
-    <row r="57" spans="1:13">
+        <v>2944304.99805</v>
+      </c>
+      <c r="N56" s="47" t="n">
+        <v>4388737.469</v>
+      </c>
+    </row>
+    <row r="57">
       <c r="A57" s="14" t="n"/>
-      <c r="B57" s="42" t="s">
-        <v>54</v>
+      <c r="B57" s="42" t="inlineStr">
+        <is>
+          <t>NET PROFIT OR LOSS FOR THE FINANCIAL YEAR</t>
+        </is>
       </c>
       <c r="C57" s="46" t="n">
         <v>2935147.80279</v>
       </c>
       <c r="D57" s="47" t="n">
-        <v>5566461.192109999</v>
+        <v>5566461.19211</v>
       </c>
       <c r="E57" s="47" t="n">
-        <v>-77026.57496000001</v>
+        <v>-77026.57496000004</v>
       </c>
       <c r="F57" s="47" t="n">
-        <v>5100407.62595</v>
+        <v>5100566.02454</v>
       </c>
       <c r="G57" s="47" t="n">
-        <v>-6531176.292769999</v>
+        <v>-6650343.424379999</v>
       </c>
       <c r="H57" s="47" t="n">
-        <v>-3396487.04706</v>
+        <v>-3714836.2455</v>
       </c>
       <c r="I57" s="47" t="n">
-        <v>-5663435.391150001</v>
+        <v>-6137085.12808</v>
       </c>
       <c r="J57" s="47" t="n">
-        <v>-2755104.03321</v>
+        <v>-2749854.76145</v>
       </c>
       <c r="K57" s="47" t="n">
         <v>-2591845.39296</v>
       </c>
       <c r="L57" s="47" t="n">
-        <v>-25779091.85775</v>
+        <v>-25790692.3123</v>
       </c>
       <c r="M57" s="47" t="n">
-        <v>15418194.39607</v>
-      </c>
-    </row>
-    <row r="58" spans="1:13">
+        <v>15398909.89342</v>
+      </c>
+      <c r="N57" s="47" t="n">
+        <v>40686.874</v>
+      </c>
+    </row>
+    <row r="58">
       <c r="A58" s="9" t="n"/>
       <c r="B58" s="30" t="n"/>
       <c r="C58" s="27" t="n"/>
@@ -3025,11 +3194,14 @@
       <c r="K58" s="27" t="n"/>
       <c r="L58" s="27" t="n"/>
       <c r="M58" s="27" t="n"/>
-    </row>
-    <row r="59" spans="1:13">
+      <c r="N58" s="27" t="n"/>
+    </row>
+    <row r="59">
       <c r="A59" s="9" t="n"/>
-      <c r="B59" s="43" t="s">
-        <v>55</v>
+      <c r="B59" s="43" t="inlineStr">
+        <is>
+          <t>Number of Companies</t>
+        </is>
       </c>
       <c r="C59" s="35" t="n">
         <v>1617</v>
@@ -3041,31 +3213,34 @@
         <v>2260</v>
       </c>
       <c r="F59" s="35" t="n">
-        <v>2592</v>
+        <v>2593</v>
       </c>
       <c r="G59" s="35" t="n">
-        <v>3545</v>
+        <v>3552</v>
       </c>
       <c r="H59" s="35" t="n">
-        <v>5181</v>
+        <v>5203</v>
       </c>
       <c r="I59" s="35" t="n">
-        <v>8312</v>
+        <v>8398</v>
       </c>
       <c r="J59" s="35" t="n">
-        <v>9303</v>
+        <v>9432</v>
       </c>
       <c r="K59" s="35" t="n">
         <v>9114</v>
       </c>
       <c r="L59" s="35" t="n">
-        <v>8488</v>
+        <v>8682</v>
       </c>
       <c r="M59" s="35" t="n">
-        <v>7878</v>
-      </c>
-    </row>
-    <row r="60" spans="1:13">
+        <v>8123</v>
+      </c>
+      <c r="N59" s="35" t="n">
+        <v>7901</v>
+      </c>
+    </row>
+    <row r="60">
       <c r="A60" s="10" t="n"/>
       <c r="B60" s="29" t="n"/>
       <c r="C60" s="28" t="n"/>
@@ -3079,8 +3254,9 @@
       <c r="K60" s="28" t="n"/>
       <c r="L60" s="28" t="n"/>
       <c r="M60" s="28" t="n"/>
-    </row>
-    <row customHeight="1" ht="15.75" r="61" s="44" spans="1:13">
+      <c r="N60" s="28" t="n"/>
+    </row>
+    <row r="61" ht="15.75" customHeight="1" s="44">
       <c r="A61" s="5" t="n"/>
       <c r="B61" s="11" t="n"/>
       <c r="C61" s="11" t="n"/>
@@ -3094,8 +3270,9 @@
       <c r="K61" s="11" t="n"/>
       <c r="L61" s="11" t="n"/>
       <c r="M61" s="11" t="n"/>
-    </row>
-    <row customFormat="1" r="62" s="19" spans="1:13">
+      <c r="N61" s="11" t="n"/>
+    </row>
+    <row r="62" customFormat="1" s="19">
       <c r="A62" s="16" t="n"/>
       <c r="B62" s="18" t="n"/>
       <c r="C62" s="18" t="n"/>
@@ -3109,8 +3286,9 @@
       <c r="K62" s="18" t="n"/>
       <c r="L62" s="18" t="n"/>
       <c r="M62" s="18" t="n"/>
-    </row>
-    <row customFormat="1" r="63" s="23" spans="1:13">
+      <c r="N62" s="18" t="n"/>
+    </row>
+    <row r="63" customFormat="1" s="23">
       <c r="A63" s="20" t="n"/>
       <c r="B63" s="21" t="n"/>
       <c r="C63" s="22" t="n"/>
@@ -3124,8 +3302,9 @@
       <c r="K63" s="22" t="n"/>
       <c r="L63" s="22" t="n"/>
       <c r="M63" s="22" t="n"/>
-    </row>
-    <row customFormat="1" r="64" s="25" spans="1:13">
+      <c r="N63" s="22" t="n"/>
+    </row>
+    <row r="64" customFormat="1" s="25">
       <c r="C64" s="25" t="n"/>
       <c r="D64" s="25" t="n"/>
       <c r="E64" s="25" t="n"/>
@@ -3137,10 +3316,11 @@
       <c r="K64" s="25" t="n"/>
       <c r="L64" s="25" t="n"/>
       <c r="M64" s="25" t="n"/>
+      <c r="N64" s="25" t="n"/>
     </row>
   </sheetData>
   <printOptions gridLinesSet="0"/>
-  <pageMargins bottom="0.3937007874015748" footer="0.3543307086614174" header="0.3543307086614174" left="0.7480314960629921" right="0.1968503937007874" top="0.4724409448818898"/>
-  <pageSetup horizontalDpi="300" orientation="portrait" paperSize="9" scale="93" verticalDpi="300"/>
+  <pageMargins left="0.7480314960629921" right="0.1968503937007874" top="0.4724409448818898" bottom="0.3937007874015748" header="0.3543307086614174" footer="0.3543307086614174"/>
+  <pageSetup orientation="portrait" paperSize="9" scale="93" horizontalDpi="300" verticalDpi="300"/>
 </worksheet>
 </file>